--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -7002,28 +7002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2535.838791582868</v>
+        <v>2682.100747600986</v>
       </c>
       <c r="AB2" t="n">
-        <v>3469.646507955741</v>
+        <v>3669.768568801837</v>
       </c>
       <c r="AC2" t="n">
-        <v>3138.508314915773</v>
+        <v>3319.531007147787</v>
       </c>
       <c r="AD2" t="n">
-        <v>2535838.791582868</v>
+        <v>2682100.747600986</v>
       </c>
       <c r="AE2" t="n">
-        <v>3469646.507955741</v>
+        <v>3669768.568801838</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.244962218879894e-07</v>
+        <v>1.155481512614708e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.33449074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>3138508.314915773</v>
+        <v>3319531.007147787</v>
       </c>
     </row>
     <row r="3">
@@ -7108,28 +7108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1505.00578949606</v>
+        <v>1614.595602818571</v>
       </c>
       <c r="AB3" t="n">
-        <v>2059.215317357935</v>
+        <v>2209.160934707138</v>
       </c>
       <c r="AC3" t="n">
-        <v>1862.686697596143</v>
+        <v>1998.321715675535</v>
       </c>
       <c r="AD3" t="n">
-        <v>1505005.78949606</v>
+        <v>1614595.602818571</v>
       </c>
       <c r="AE3" t="n">
-        <v>2059215.317357935</v>
+        <v>2209160.934707139</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.80891020917269e-07</v>
+        <v>1.629879018676857e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.25115740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>1862686.697596143</v>
+        <v>1998321.715675534</v>
       </c>
     </row>
     <row r="4">
@@ -7214,28 +7214,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1281.079979145427</v>
+        <v>1378.47419185426</v>
       </c>
       <c r="AB4" t="n">
-        <v>1752.830144726665</v>
+        <v>1886.089203284307</v>
       </c>
       <c r="AC4" t="n">
-        <v>1585.542495826511</v>
+        <v>1706.083496865675</v>
       </c>
       <c r="AD4" t="n">
-        <v>1281079.979145427</v>
+        <v>1378474.19185426</v>
       </c>
       <c r="AE4" t="n">
-        <v>1752830.144726665</v>
+        <v>1886089.203284307</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.80833524512664e-07</v>
+        <v>1.814798816717878e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.49189814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>1585542.495826511</v>
+        <v>1706083.496865675</v>
       </c>
     </row>
     <row r="5">
@@ -7320,28 +7320,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1180.502723307185</v>
+        <v>1277.982187362039</v>
       </c>
       <c r="AB5" t="n">
-        <v>1615.215906133415</v>
+        <v>1748.591609343706</v>
       </c>
       <c r="AC5" t="n">
-        <v>1461.061967021803</v>
+        <v>1581.70848031168</v>
       </c>
       <c r="AD5" t="n">
-        <v>1180502.723307185</v>
+        <v>1277982.187362039</v>
       </c>
       <c r="AE5" t="n">
-        <v>1615215.906133414</v>
+        <v>1748591.609343706</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.034612359868252e-06</v>
+        <v>1.914303742200803e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.6875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1461061.967021803</v>
+        <v>1581708.480311679</v>
       </c>
     </row>
     <row r="6">
@@ -7426,28 +7426,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1130.012613329282</v>
+        <v>1215.296566279008</v>
       </c>
       <c r="AB6" t="n">
-        <v>1546.133110195201</v>
+        <v>1662.82237708348</v>
       </c>
       <c r="AC6" t="n">
-        <v>1398.57233616962</v>
+        <v>1504.124943200495</v>
       </c>
       <c r="AD6" t="n">
-        <v>1130012.613329282</v>
+        <v>1215296.566279008</v>
       </c>
       <c r="AE6" t="n">
-        <v>1546133.110195201</v>
+        <v>1662822.37708348</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.067751466420378e-06</v>
+        <v>1.975619765618504e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.23321759259259</v>
       </c>
       <c r="AH6" t="n">
-        <v>1398572.33616962</v>
+        <v>1504124.943200495</v>
       </c>
     </row>
     <row r="7">
@@ -7532,28 +7532,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1079.943645181767</v>
+        <v>1177.337768382049</v>
       </c>
       <c r="AB7" t="n">
-        <v>1477.626539088792</v>
+        <v>1610.885475176886</v>
       </c>
       <c r="AC7" t="n">
-        <v>1336.60393606003</v>
+        <v>1457.144826317968</v>
       </c>
       <c r="AD7" t="n">
-        <v>1079943.645181767</v>
+        <v>1177337.768382049</v>
       </c>
       <c r="AE7" t="n">
-        <v>1477626.539088792</v>
+        <v>1610885.475176886</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.0926977035238e-06</v>
+        <v>2.021776835544666e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.90625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1336603.93606003</v>
+        <v>1457144.826317968</v>
       </c>
     </row>
     <row r="8">
@@ -7638,28 +7638,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1058.007614151854</v>
+        <v>1143.376818447601</v>
       </c>
       <c r="AB8" t="n">
-        <v>1447.612693684276</v>
+        <v>1564.418605225205</v>
       </c>
       <c r="AC8" t="n">
-        <v>1309.454569936225</v>
+        <v>1415.112689217813</v>
       </c>
       <c r="AD8" t="n">
-        <v>1058007.614151854</v>
+        <v>1143376.818447601</v>
       </c>
       <c r="AE8" t="n">
-        <v>1447612.693684276</v>
+        <v>1564418.605225205</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.107402853816344e-06</v>
+        <v>2.048985213606403e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.72395833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1309454.569936224</v>
+        <v>1415112.689217813</v>
       </c>
     </row>
     <row r="9">
@@ -7744,28 +7744,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1038.117940973498</v>
+        <v>1123.487145269245</v>
       </c>
       <c r="AB9" t="n">
-        <v>1420.398765371198</v>
+        <v>1537.204676912126</v>
       </c>
       <c r="AC9" t="n">
-        <v>1284.837900746358</v>
+        <v>1390.496020027946</v>
       </c>
       <c r="AD9" t="n">
-        <v>1038117.940973498</v>
+        <v>1123487.145269245</v>
       </c>
       <c r="AE9" t="n">
-        <v>1420398.765371198</v>
+        <v>1537204.676912126</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.120374897110123e-06</v>
+        <v>2.072986889968007e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.5619212962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>1284837.900746358</v>
+        <v>1390496.020027946</v>
       </c>
     </row>
     <row r="10">
@@ -7850,28 +7850,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1022.017601728958</v>
+        <v>1107.216213824113</v>
       </c>
       <c r="AB10" t="n">
-        <v>1398.369570919981</v>
+        <v>1514.942070686062</v>
       </c>
       <c r="AC10" t="n">
-        <v>1264.911141695397</v>
+        <v>1370.358125694334</v>
       </c>
       <c r="AD10" t="n">
-        <v>1022017.601728958</v>
+        <v>1107216.213824113</v>
       </c>
       <c r="AE10" t="n">
-        <v>1398369.570919981</v>
+        <v>1514942.070686062</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.130353391951492e-06</v>
+        <v>2.091449717938471e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.44328703703704</v>
       </c>
       <c r="AH10" t="n">
-        <v>1264911.141695397</v>
+        <v>1370358.125694334</v>
       </c>
     </row>
     <row r="11">
@@ -7956,28 +7956,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1008.239126953686</v>
+        <v>1093.437739048841</v>
       </c>
       <c r="AB11" t="n">
-        <v>1379.517253869048</v>
+        <v>1496.089753635129</v>
       </c>
       <c r="AC11" t="n">
-        <v>1247.858063324411</v>
+        <v>1353.305047323348</v>
       </c>
       <c r="AD11" t="n">
-        <v>1008239.126953686</v>
+        <v>1093437.739048841</v>
       </c>
       <c r="AE11" t="n">
-        <v>1379517.253869048</v>
+        <v>1496089.753635129</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.138598779794097e-06</v>
+        <v>2.106705844208803e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.34490740740741</v>
       </c>
       <c r="AH11" t="n">
-        <v>1247858.063324411</v>
+        <v>1353305.047323348</v>
       </c>
     </row>
     <row r="12">
@@ -8062,28 +8062,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>997.3342473595959</v>
+        <v>1082.532859454751</v>
       </c>
       <c r="AB12" t="n">
-        <v>1364.59671651908</v>
+        <v>1481.16921628516</v>
       </c>
       <c r="AC12" t="n">
-        <v>1234.361521118018</v>
+        <v>1339.808505116956</v>
       </c>
       <c r="AD12" t="n">
-        <v>997334.247359596</v>
+        <v>1082532.859454751</v>
       </c>
       <c r="AE12" t="n">
-        <v>1364596.71651908</v>
+        <v>1481169.216285161</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.145058542244036e-06</v>
+        <v>2.118658096000209e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.27256944444444</v>
       </c>
       <c r="AH12" t="n">
-        <v>1234361.521118018</v>
+        <v>1339808.505116956</v>
       </c>
     </row>
     <row r="13">
@@ -8168,28 +8168,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>983.3867332693853</v>
+        <v>1056.560426460005</v>
       </c>
       <c r="AB13" t="n">
-        <v>1345.513112419959</v>
+        <v>1445.632587638874</v>
       </c>
       <c r="AC13" t="n">
-        <v>1217.099229410111</v>
+        <v>1307.663442432699</v>
       </c>
       <c r="AD13" t="n">
-        <v>983386.7332693853</v>
+        <v>1056560.426460005</v>
       </c>
       <c r="AE13" t="n">
-        <v>1345513.112419959</v>
+        <v>1445632.587638874</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.152411117390308e-06</v>
+        <v>2.132262285031077e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.18576388888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>1217099.229410111</v>
+        <v>1307663.442432699</v>
       </c>
     </row>
     <row r="14">
@@ -8274,28 +8274,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>975.8466284784432</v>
+        <v>1049.020321669063</v>
       </c>
       <c r="AB14" t="n">
-        <v>1335.196408399046</v>
+        <v>1435.315883617961</v>
       </c>
       <c r="AC14" t="n">
-        <v>1207.767137141369</v>
+        <v>1298.331350163957</v>
       </c>
       <c r="AD14" t="n">
-        <v>975846.6284784433</v>
+        <v>1049020.321669063</v>
       </c>
       <c r="AE14" t="n">
-        <v>1335196.408399046</v>
+        <v>1435315.883617961</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.155772294600032e-06</v>
+        <v>2.13848134287376e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.14814814814815</v>
       </c>
       <c r="AH14" t="n">
-        <v>1207767.137141369</v>
+        <v>1298331.350163957</v>
       </c>
     </row>
     <row r="15">
@@ -8380,28 +8380,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>965.540800525886</v>
+        <v>1038.714493716506</v>
       </c>
       <c r="AB15" t="n">
-        <v>1321.095519933316</v>
+        <v>1421.214995152231</v>
       </c>
       <c r="AC15" t="n">
-        <v>1195.012017680087</v>
+        <v>1285.576230702675</v>
       </c>
       <c r="AD15" t="n">
-        <v>965540.800525886</v>
+        <v>1038714.493716506</v>
       </c>
       <c r="AE15" t="n">
-        <v>1321095.519933316</v>
+        <v>1421214.995152231</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.160446431657305e-06</v>
+        <v>2.147129720186241e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.09606481481481</v>
       </c>
       <c r="AH15" t="n">
-        <v>1195012.017680087</v>
+        <v>1285576.230702675</v>
       </c>
     </row>
     <row r="16">
@@ -8486,28 +8486,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>957.0674203439138</v>
+        <v>1030.241113534534</v>
       </c>
       <c r="AB16" t="n">
-        <v>1309.501867349191</v>
+        <v>1409.621342568106</v>
       </c>
       <c r="AC16" t="n">
-        <v>1184.524847026797</v>
+        <v>1275.089060049385</v>
       </c>
       <c r="AD16" t="n">
-        <v>957067.4203439138</v>
+        <v>1030241.113534534</v>
       </c>
       <c r="AE16" t="n">
-        <v>1309501.867349191</v>
+        <v>1409621.342568106</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.163807608867029e-06</v>
+        <v>2.153348778028924e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>13.05844907407408</v>
       </c>
       <c r="AH16" t="n">
-        <v>1184524.847026797</v>
+        <v>1275089.060049385</v>
       </c>
     </row>
     <row r="17">
@@ -8592,28 +8592,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>947.1667769491447</v>
+        <v>1020.340470139765</v>
       </c>
       <c r="AB17" t="n">
-        <v>1295.955370270908</v>
+        <v>1396.074845489823</v>
       </c>
       <c r="AC17" t="n">
-        <v>1172.271208617038</v>
+        <v>1262.835421639626</v>
       </c>
       <c r="AD17" t="n">
-        <v>947166.7769491447</v>
+        <v>1020340.470139765</v>
       </c>
       <c r="AE17" t="n">
-        <v>1295955.370270908</v>
+        <v>1396074.845489823</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.167799006803577e-06</v>
+        <v>2.160733909217109e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>13.01215277777778</v>
       </c>
       <c r="AH17" t="n">
-        <v>1172271.208617038</v>
+        <v>1262835.421639626</v>
       </c>
     </row>
     <row r="18">
@@ -8698,28 +8698,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>930.2189459769852</v>
+        <v>1015.502809418161</v>
       </c>
       <c r="AB18" t="n">
-        <v>1272.766600249266</v>
+        <v>1389.455744667996</v>
       </c>
       <c r="AC18" t="n">
-        <v>1151.295542260618</v>
+        <v>1256.848038510267</v>
       </c>
       <c r="AD18" t="n">
-        <v>930218.9459769852</v>
+        <v>1015502.809418161</v>
       </c>
       <c r="AE18" t="n">
-        <v>1272766.600249266</v>
+        <v>1389455.744667996</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.169427077014537e-06</v>
+        <v>2.163746265359659e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.99479166666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1151295.542260618</v>
+        <v>1256848.038510267</v>
       </c>
     </row>
     <row r="19">
@@ -8804,28 +8804,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>921.5805252322311</v>
+        <v>1006.864388673407</v>
       </c>
       <c r="AB19" t="n">
-        <v>1260.947131886067</v>
+        <v>1377.636276304797</v>
       </c>
       <c r="AC19" t="n">
-        <v>1140.604107369275</v>
+        <v>1246.156603618924</v>
       </c>
       <c r="AD19" t="n">
-        <v>921580.5252322311</v>
+        <v>1006864.388673407</v>
       </c>
       <c r="AE19" t="n">
-        <v>1260947.131886067</v>
+        <v>1377636.276304797</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.171265220801105e-06</v>
+        <v>2.167147312617376e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.97453703703704</v>
       </c>
       <c r="AH19" t="n">
-        <v>1140604.107369275</v>
+        <v>1246156.603618924</v>
       </c>
     </row>
     <row r="20">
@@ -8910,28 +8910,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>914.8958522944426</v>
+        <v>1000.179715735618</v>
       </c>
       <c r="AB20" t="n">
-        <v>1251.800867465628</v>
+        <v>1368.490011884358</v>
       </c>
       <c r="AC20" t="n">
-        <v>1132.33074958826</v>
+        <v>1237.883245837909</v>
       </c>
       <c r="AD20" t="n">
-        <v>914895.8522944426</v>
+        <v>1000179.715735618</v>
       </c>
       <c r="AE20" t="n">
-        <v>1251800.867465628</v>
+        <v>1368490.011884358</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.174941508374241e-06</v>
+        <v>2.173949407132811e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.93402777777778</v>
       </c>
       <c r="AH20" t="n">
-        <v>1132330.74958826</v>
+        <v>1237883.245837909</v>
       </c>
     </row>
     <row r="21">
@@ -9016,28 +9016,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>908.8422803184711</v>
+        <v>994.1261437596467</v>
       </c>
       <c r="AB21" t="n">
-        <v>1243.518103223357</v>
+        <v>1360.207247642087</v>
       </c>
       <c r="AC21" t="n">
-        <v>1124.838480740338</v>
+        <v>1230.390976989988</v>
       </c>
       <c r="AD21" t="n">
-        <v>908842.2803184711</v>
+        <v>994126.1437596467</v>
       </c>
       <c r="AE21" t="n">
-        <v>1243518.103223357</v>
+        <v>1360207.247642087</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.176201949827887e-06</v>
+        <v>2.176281553823816e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.91956018518519</v>
       </c>
       <c r="AH21" t="n">
-        <v>1124838.480740338</v>
+        <v>1230390.976989988</v>
       </c>
     </row>
     <row r="22">
@@ -9122,28 +9122,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>902.098384157048</v>
+        <v>987.3822475982237</v>
       </c>
       <c r="AB22" t="n">
-        <v>1234.290806975597</v>
+        <v>1350.979951394327</v>
       </c>
       <c r="AC22" t="n">
-        <v>1116.491824695873</v>
+        <v>1222.044320945522</v>
       </c>
       <c r="AD22" t="n">
-        <v>902098.3841570481</v>
+        <v>987382.2475982236</v>
       </c>
       <c r="AE22" t="n">
-        <v>1234290.806975597</v>
+        <v>1350979.951394327</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.177830020038847e-06</v>
+        <v>2.179293909966366e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.90219907407408</v>
       </c>
       <c r="AH22" t="n">
-        <v>1116491.824695873</v>
+        <v>1222044.320945523</v>
       </c>
     </row>
     <row r="23">
@@ -9228,28 +9228,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>891.8689831120828</v>
+        <v>977.1528465532584</v>
       </c>
       <c r="AB23" t="n">
-        <v>1220.294489176552</v>
+        <v>1336.983633595282</v>
       </c>
       <c r="AC23" t="n">
-        <v>1103.831295823613</v>
+        <v>1209.383792073263</v>
       </c>
       <c r="AD23" t="n">
-        <v>891868.9831120828</v>
+        <v>977152.8465532585</v>
       </c>
       <c r="AE23" t="n">
-        <v>1220294.489176552</v>
+        <v>1336983.633595282</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.180403421340042e-06</v>
+        <v>2.18405537612717e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.87326388888889</v>
       </c>
       <c r="AH23" t="n">
-        <v>1103831.295823613</v>
+        <v>1209383.792073263</v>
       </c>
     </row>
     <row r="24">
@@ -9334,28 +9334,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>886.1152725284139</v>
+        <v>971.3991359695895</v>
       </c>
       <c r="AB24" t="n">
-        <v>1212.42200852018</v>
+        <v>1329.11115293891</v>
       </c>
       <c r="AC24" t="n">
-        <v>1096.71015367199</v>
+        <v>1202.262649921639</v>
       </c>
       <c r="AD24" t="n">
-        <v>886115.2725284139</v>
+        <v>971399.1359695895</v>
       </c>
       <c r="AE24" t="n">
-        <v>1212422.00852018</v>
+        <v>1329111.152938911</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.181821417975395e-06</v>
+        <v>2.186679041154552e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>12.8587962962963</v>
       </c>
       <c r="AH24" t="n">
-        <v>1096710.15367199</v>
+        <v>1202262.649921639</v>
       </c>
     </row>
     <row r="25">
@@ -9440,28 +9440,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>881.414445714003</v>
+        <v>966.6983091551788</v>
       </c>
       <c r="AB25" t="n">
-        <v>1205.990129886861</v>
+        <v>1322.679274305591</v>
       </c>
       <c r="AC25" t="n">
-        <v>1090.892124508236</v>
+        <v>1196.444620757886</v>
       </c>
       <c r="AD25" t="n">
-        <v>881414.4457140031</v>
+        <v>966698.3091551787</v>
       </c>
       <c r="AE25" t="n">
-        <v>1205990.12988686</v>
+        <v>1322679.274305591</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.181558826005885e-06</v>
+        <v>2.186193177260592e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12.86168981481482</v>
       </c>
       <c r="AH25" t="n">
-        <v>1090892.124508236</v>
+        <v>1196444.620757886</v>
       </c>
     </row>
     <row r="26">
@@ -9546,28 +9546,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>878.9913610889203</v>
+        <v>964.275224530096</v>
       </c>
       <c r="AB26" t="n">
-        <v>1202.674758603873</v>
+        <v>1319.363903022604</v>
       </c>
       <c r="AC26" t="n">
-        <v>1087.893167607344</v>
+        <v>1193.445663856994</v>
       </c>
       <c r="AD26" t="n">
-        <v>878991.3610889203</v>
+        <v>964275.224530096</v>
       </c>
       <c r="AE26" t="n">
-        <v>1202674.758603873</v>
+        <v>1319363.903022604</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.183764598549767e-06</v>
+        <v>2.190274433969853e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>12.83564814814815</v>
       </c>
       <c r="AH26" t="n">
-        <v>1087893.167607344</v>
+        <v>1193445.663856994</v>
       </c>
     </row>
     <row r="27">
@@ -9652,28 +9652,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>878.7847797480885</v>
+        <v>964.0686431892641</v>
       </c>
       <c r="AB27" t="n">
-        <v>1202.392104899621</v>
+        <v>1319.081249318352</v>
       </c>
       <c r="AC27" t="n">
-        <v>1087.637489975919</v>
+        <v>1193.189986225569</v>
       </c>
       <c r="AD27" t="n">
-        <v>878784.7797480884</v>
+        <v>964068.6431892641</v>
       </c>
       <c r="AE27" t="n">
-        <v>1202392.104899622</v>
+        <v>1319081.249318352</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.182976822641238e-06</v>
+        <v>2.188816842287974e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>12.8443287037037</v>
       </c>
       <c r="AH27" t="n">
-        <v>1087637.489975919</v>
+        <v>1193189.986225569</v>
       </c>
     </row>
     <row r="28">
@@ -9758,28 +9758,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>881.6058244475416</v>
+        <v>966.8896878887172</v>
       </c>
       <c r="AB28" t="n">
-        <v>1206.251982713122</v>
+        <v>1322.941127131852</v>
       </c>
       <c r="AC28" t="n">
-        <v>1091.128986468271</v>
+        <v>1196.681482717921</v>
       </c>
       <c r="AD28" t="n">
-        <v>881605.8244475416</v>
+        <v>966889.6878887172</v>
       </c>
       <c r="AE28" t="n">
-        <v>1206251.982713122</v>
+        <v>1322941.127131852</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.182924304247336e-06</v>
+        <v>2.188719669509182e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>12.84722222222222</v>
       </c>
       <c r="AH28" t="n">
-        <v>1091128.986468272</v>
+        <v>1196681.482717921</v>
       </c>
     </row>
     <row r="29">
@@ -9864,28 +9864,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>884.945371625513</v>
+        <v>970.2292350666886</v>
       </c>
       <c r="AB29" t="n">
-        <v>1210.821298492446</v>
+        <v>1327.510442911176</v>
       </c>
       <c r="AC29" t="n">
-        <v>1095.262213162692</v>
+        <v>1200.814709412341</v>
       </c>
       <c r="AD29" t="n">
-        <v>884945.371625513</v>
+        <v>970229.2350666886</v>
       </c>
       <c r="AE29" t="n">
-        <v>1210821.298492446</v>
+        <v>1327510.442911176</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.182924304247336e-06</v>
+        <v>2.188719669509182e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>12.84722222222222</v>
       </c>
       <c r="AH29" t="n">
-        <v>1095262.213162692</v>
+        <v>1200814.709412341</v>
       </c>
     </row>
   </sheetData>
@@ -10161,28 +10161,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1899.854724326479</v>
+        <v>2029.084965585776</v>
       </c>
       <c r="AB2" t="n">
-        <v>2599.465049498512</v>
+        <v>2776.283566825353</v>
       </c>
       <c r="AC2" t="n">
-        <v>2351.375753546484</v>
+        <v>2511.318959746</v>
       </c>
       <c r="AD2" t="n">
-        <v>1899854.724326479</v>
+        <v>2029084.965585776</v>
       </c>
       <c r="AE2" t="n">
-        <v>2599465.049498511</v>
+        <v>2776283.566825354</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.378495332054116e-07</v>
+        <v>1.406455084377799e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.30497685185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>2351375.753546484</v>
+        <v>2511318.959746</v>
       </c>
     </row>
     <row r="3">
@@ -10267,28 +10267,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1240.099574714182</v>
+        <v>1334.124020429899</v>
       </c>
       <c r="AB3" t="n">
-        <v>1696.75894745599</v>
+        <v>1825.407342150023</v>
       </c>
       <c r="AC3" t="n">
-        <v>1534.822654926928</v>
+        <v>1651.193027390519</v>
       </c>
       <c r="AD3" t="n">
-        <v>1240099.574714182</v>
+        <v>1334124.020429899</v>
       </c>
       <c r="AE3" t="n">
-        <v>1696758.947455989</v>
+        <v>1825407.342150023</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.749979915252422e-07</v>
+        <v>1.8584966456258e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.12268518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>1534822.654926928</v>
+        <v>1651193.027390519</v>
       </c>
     </row>
     <row r="4">
@@ -10373,28 +10373,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1076.945069474496</v>
+        <v>1170.969425681662</v>
       </c>
       <c r="AB4" t="n">
-        <v>1473.523755518281</v>
+        <v>1602.172027742766</v>
       </c>
       <c r="AC4" t="n">
-        <v>1332.892716395195</v>
+        <v>1449.26297807756</v>
       </c>
       <c r="AD4" t="n">
-        <v>1076945.069474496</v>
+        <v>1170969.425681663</v>
       </c>
       <c r="AE4" t="n">
-        <v>1473523.755518281</v>
+        <v>1602172.027742766</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.064261431850439e-06</v>
+        <v>2.028646539126479e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.77141203703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>1332892.716395195</v>
+        <v>1449262.97807756</v>
       </c>
     </row>
     <row r="5">
@@ -10479,28 +10479,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1012.149659454461</v>
+        <v>1094.410393037461</v>
       </c>
       <c r="AB5" t="n">
-        <v>1384.867816957126</v>
+        <v>1497.420581732824</v>
       </c>
       <c r="AC5" t="n">
-        <v>1252.697976180925</v>
+        <v>1354.508863055229</v>
       </c>
       <c r="AD5" t="n">
-        <v>1012149.659454461</v>
+        <v>1094410.393037461</v>
       </c>
       <c r="AE5" t="n">
-        <v>1384867.816957126</v>
+        <v>1497420.581732824</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.111473805339541e-06</v>
+        <v>2.118640609395554e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.14351851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>1252697.976180925</v>
+        <v>1354508.863055229</v>
       </c>
     </row>
     <row r="6">
@@ -10585,28 +10585,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>962.6282485375262</v>
+        <v>1044.974233466547</v>
       </c>
       <c r="AB6" t="n">
-        <v>1317.110437810117</v>
+        <v>1429.779847238465</v>
       </c>
       <c r="AC6" t="n">
-        <v>1191.407266201628</v>
+        <v>1293.323665326644</v>
       </c>
       <c r="AD6" t="n">
-        <v>962628.2485375262</v>
+        <v>1044974.233466547</v>
       </c>
       <c r="AE6" t="n">
-        <v>1317110.437810117</v>
+        <v>1429779.847238465</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.139616508984369e-06</v>
+        <v>2.172284945873552e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.79340277777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1191407.266201628</v>
+        <v>1293323.665326644</v>
       </c>
     </row>
     <row r="7">
@@ -10691,28 +10691,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>934.6014044982693</v>
+        <v>1016.94738942729</v>
       </c>
       <c r="AB7" t="n">
-        <v>1278.762873338512</v>
+        <v>1391.432282766859</v>
       </c>
       <c r="AC7" t="n">
-        <v>1156.719539462048</v>
+        <v>1258.635938587063</v>
       </c>
       <c r="AD7" t="n">
-        <v>934601.4044982693</v>
+        <v>1016947.38942729</v>
       </c>
       <c r="AE7" t="n">
-        <v>1278762.873338511</v>
+        <v>1391432.282766859</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.160479053771268e-06</v>
+        <v>2.212052176003961e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.5474537037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>1156719.539462048</v>
+        <v>1258635.938587063</v>
       </c>
     </row>
     <row r="8">
@@ -10797,28 +10797,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>914.8789905118804</v>
+        <v>997.0543832403089</v>
       </c>
       <c r="AB8" t="n">
-        <v>1251.777796430837</v>
+        <v>1364.213794084337</v>
       </c>
       <c r="AC8" t="n">
-        <v>1132.309880420649</v>
+        <v>1234.015144263013</v>
       </c>
       <c r="AD8" t="n">
-        <v>914878.9905118804</v>
+        <v>997054.3832403088</v>
       </c>
       <c r="AE8" t="n">
-        <v>1251777.796430837</v>
+        <v>1364213.794084338</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.173844121525375e-06</v>
+        <v>2.237528057806254e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.3912037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>1132309.880420649</v>
+        <v>1234015.144263013</v>
       </c>
     </row>
     <row r="9">
@@ -10903,28 +10903,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>897.2996212895533</v>
+        <v>979.4750140179818</v>
       </c>
       <c r="AB9" t="n">
-        <v>1227.724927913814</v>
+        <v>1340.160925567315</v>
       </c>
       <c r="AC9" t="n">
-        <v>1110.552583916478</v>
+        <v>1212.257847758842</v>
       </c>
       <c r="AD9" t="n">
-        <v>897299.6212895534</v>
+        <v>979475.0140179818</v>
       </c>
       <c r="AE9" t="n">
-        <v>1227724.927913814</v>
+        <v>1340160.925567315</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.184764359812268e-06</v>
+        <v>2.258343717327639e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.26967592592593</v>
       </c>
       <c r="AH9" t="n">
-        <v>1110552.583916478</v>
+        <v>1212257.847758842</v>
       </c>
     </row>
     <row r="10">
@@ -11009,28 +11009,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>882.9040439321257</v>
+        <v>953.4864062369802</v>
       </c>
       <c r="AB10" t="n">
-        <v>1208.028263885331</v>
+        <v>1304.602165864892</v>
       </c>
       <c r="AC10" t="n">
-        <v>1092.735741858432</v>
+        <v>1180.092766175386</v>
       </c>
       <c r="AD10" t="n">
-        <v>882904.0439321257</v>
+        <v>953486.4062369802</v>
       </c>
       <c r="AE10" t="n">
-        <v>1208028.263885331</v>
+        <v>1304602.165864892</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.193239768631946e-06</v>
+        <v>2.274499154568117e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.17418981481482</v>
       </c>
       <c r="AH10" t="n">
-        <v>1092735.741858432</v>
+        <v>1180092.766175386</v>
       </c>
     </row>
     <row r="11">
@@ -11115,28 +11115,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>867.5057465344111</v>
+        <v>938.0881088392656</v>
       </c>
       <c r="AB11" t="n">
-        <v>1186.959634060842</v>
+        <v>1283.533536040402</v>
       </c>
       <c r="AC11" t="n">
-        <v>1073.677872494384</v>
+        <v>1161.034896811337</v>
       </c>
       <c r="AD11" t="n">
-        <v>867505.7465344111</v>
+        <v>938088.1088392657</v>
       </c>
       <c r="AE11" t="n">
-        <v>1186959.634060842</v>
+        <v>1283533.536040402</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.20122621155818e-06</v>
+        <v>2.289722547352414e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.08738425925926</v>
       </c>
       <c r="AH11" t="n">
-        <v>1073677.872494383</v>
+        <v>1161034.896811337</v>
       </c>
     </row>
     <row r="12">
@@ -11221,28 +11221,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>859.0287113714022</v>
+        <v>929.611073676257</v>
       </c>
       <c r="AB12" t="n">
-        <v>1175.360980570416</v>
+        <v>1271.934882549976</v>
       </c>
       <c r="AC12" t="n">
-        <v>1063.186178214271</v>
+        <v>1150.543202531225</v>
       </c>
       <c r="AD12" t="n">
-        <v>859028.7113714023</v>
+        <v>929611.0736762569</v>
       </c>
       <c r="AE12" t="n">
-        <v>1175360.980570416</v>
+        <v>1271934.882549976</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.205789893230315e-06</v>
+        <v>2.298421628943441e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.03819444444444</v>
       </c>
       <c r="AH12" t="n">
-        <v>1063186.178214271</v>
+        <v>1150543.202531226</v>
       </c>
     </row>
     <row r="13">
@@ -11327,28 +11327,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>835.2034682996256</v>
+        <v>917.4641123740745</v>
       </c>
       <c r="AB13" t="n">
-        <v>1142.762231904069</v>
+        <v>1255.314874210218</v>
       </c>
       <c r="AC13" t="n">
-        <v>1033.698608368009</v>
+        <v>1135.509384461086</v>
       </c>
       <c r="AD13" t="n">
-        <v>835203.4682996256</v>
+        <v>917464.1123740745</v>
       </c>
       <c r="AE13" t="n">
-        <v>1142762.231904069</v>
+        <v>1255314.874210218</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.211059858970755e-06</v>
+        <v>2.308466996971175e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.98032407407407</v>
       </c>
       <c r="AH13" t="n">
-        <v>1033698.608368009</v>
+        <v>1135509.384461086</v>
       </c>
     </row>
     <row r="14">
@@ -11433,28 +11433,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>821.3197713843778</v>
+        <v>903.5804154588267</v>
       </c>
       <c r="AB14" t="n">
-        <v>1123.765945279147</v>
+        <v>1236.318587585297</v>
       </c>
       <c r="AC14" t="n">
-        <v>1016.515300677115</v>
+        <v>1118.326076770191</v>
       </c>
       <c r="AD14" t="n">
-        <v>821319.7713843777</v>
+        <v>903580.4154588267</v>
       </c>
       <c r="AE14" t="n">
-        <v>1123765.945279147</v>
+        <v>1236318.587585297</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.216221165623764e-06</v>
+        <v>2.318305244008646e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.92534722222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>1016515.300677115</v>
+        <v>1118326.076770191</v>
       </c>
     </row>
     <row r="15">
@@ -11539,28 +11539,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>812.7308264492071</v>
+        <v>894.9914705236558</v>
       </c>
       <c r="AB15" t="n">
-        <v>1112.014171901339</v>
+        <v>1224.566814207489</v>
       </c>
       <c r="AC15" t="n">
-        <v>1005.885100056767</v>
+        <v>1107.695876149843</v>
       </c>
       <c r="AD15" t="n">
-        <v>812730.8264492071</v>
+        <v>894991.4705236559</v>
       </c>
       <c r="AE15" t="n">
-        <v>1112014.171901339</v>
+        <v>1224566.814207489</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.218665995090979e-06</v>
+        <v>2.322965466289553e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.89930555555556</v>
       </c>
       <c r="AH15" t="n">
-        <v>1005885.100056767</v>
+        <v>1107695.876149843</v>
       </c>
     </row>
     <row r="16">
@@ -11645,28 +11645,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>801.8448759292339</v>
+        <v>884.105520003683</v>
       </c>
       <c r="AB16" t="n">
-        <v>1097.119534145669</v>
+        <v>1209.672176451819</v>
       </c>
       <c r="AC16" t="n">
-        <v>992.4119856237431</v>
+        <v>1094.22276171682</v>
       </c>
       <c r="AD16" t="n">
-        <v>801844.875929234</v>
+        <v>884105.5200036829</v>
       </c>
       <c r="AE16" t="n">
-        <v>1097119.534145669</v>
+        <v>1209672.176451819</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.220839176839614e-06</v>
+        <v>2.327107886094803e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.87615740740741</v>
       </c>
       <c r="AH16" t="n">
-        <v>992411.9856237432</v>
+        <v>1094222.76171682</v>
       </c>
     </row>
     <row r="17">
@@ -11751,28 +11751,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>793.5304384785255</v>
+        <v>875.7910825529744</v>
       </c>
       <c r="AB17" t="n">
-        <v>1085.743354018517</v>
+        <v>1198.295996324667</v>
       </c>
       <c r="AC17" t="n">
-        <v>982.1215321613577</v>
+        <v>1083.932308254434</v>
       </c>
       <c r="AD17" t="n">
-        <v>793530.4384785255</v>
+        <v>875791.0825529745</v>
       </c>
       <c r="AE17" t="n">
-        <v>1085743.354018518</v>
+        <v>1198295.996324667</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.224424926724863e-06</v>
+        <v>2.333942878773467e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.83854166666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>982121.5321613577</v>
+        <v>1083932.308254434</v>
       </c>
     </row>
     <row r="18">
@@ -11857,28 +11857,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>786.353665050276</v>
+        <v>868.6143091247251</v>
       </c>
       <c r="AB18" t="n">
-        <v>1075.923775997089</v>
+        <v>1188.476418303239</v>
       </c>
       <c r="AC18" t="n">
-        <v>973.2391208844298</v>
+        <v>1075.049896977506</v>
       </c>
       <c r="AD18" t="n">
-        <v>786353.6650502761</v>
+        <v>868614.3091247251</v>
       </c>
       <c r="AE18" t="n">
-        <v>1075923.775997089</v>
+        <v>1188476.418303239</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.225294199424317e-06</v>
+        <v>2.335599846695568e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.82986111111111</v>
       </c>
       <c r="AH18" t="n">
-        <v>973239.1208844298</v>
+        <v>1075049.896977506</v>
       </c>
     </row>
     <row r="19">
@@ -11963,28 +11963,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>781.8903078859431</v>
+        <v>864.150951960392</v>
       </c>
       <c r="AB19" t="n">
-        <v>1069.816813815428</v>
+        <v>1182.369456121578</v>
       </c>
       <c r="AC19" t="n">
-        <v>967.7149986022109</v>
+        <v>1069.525774695288</v>
       </c>
       <c r="AD19" t="n">
-        <v>781890.3078859431</v>
+        <v>864150.9519603921</v>
       </c>
       <c r="AE19" t="n">
-        <v>1069816.813815428</v>
+        <v>1182369.456121577</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.226815426648362e-06</v>
+        <v>2.338499540559244e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.81539351851852</v>
       </c>
       <c r="AH19" t="n">
-        <v>967714.9986022109</v>
+        <v>1069525.774695287</v>
       </c>
     </row>
     <row r="20">
@@ -12069,28 +12069,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>785.718053937661</v>
+        <v>867.9786980121099</v>
       </c>
       <c r="AB20" t="n">
-        <v>1075.054104831626</v>
+        <v>1187.606747137775</v>
       </c>
       <c r="AC20" t="n">
-        <v>972.4524499144072</v>
+        <v>1074.263226007484</v>
       </c>
       <c r="AD20" t="n">
-        <v>785718.053937661</v>
+        <v>867978.69801211</v>
       </c>
       <c r="AE20" t="n">
-        <v>1075054.104831626</v>
+        <v>1187606.747137775</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.226543778929782e-06</v>
+        <v>2.337981738083587e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.81539351851852</v>
       </c>
       <c r="AH20" t="n">
-        <v>972452.4499144072</v>
+        <v>1074263.226007484</v>
       </c>
     </row>
   </sheetData>
@@ -12366,28 +12366,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>871.5579851480564</v>
+        <v>965.5582858596312</v>
       </c>
       <c r="AB2" t="n">
-        <v>1192.504085704181</v>
+        <v>1321.119444138345</v>
       </c>
       <c r="AC2" t="n">
-        <v>1078.693169454569</v>
+        <v>1195.033658592566</v>
       </c>
       <c r="AD2" t="n">
-        <v>871557.9851480564</v>
+        <v>965558.2858596311</v>
       </c>
       <c r="AE2" t="n">
-        <v>1192504.085704181</v>
+        <v>1321119.444138345</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.097109925406149e-06</v>
+        <v>2.336557024228404e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.98958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1078693.169454569</v>
+        <v>1195033.658592566</v>
       </c>
     </row>
     <row r="3">
@@ -12472,28 +12472,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>689.6437970332249</v>
+        <v>773.1806552536087</v>
       </c>
       <c r="AB3" t="n">
-        <v>943.6010680378999</v>
+        <v>1057.899882841112</v>
       </c>
       <c r="AC3" t="n">
-        <v>853.5451064567787</v>
+        <v>956.9354027945666</v>
       </c>
       <c r="AD3" t="n">
-        <v>689643.797033225</v>
+        <v>773180.6552536087</v>
       </c>
       <c r="AE3" t="n">
-        <v>943601.0680378999</v>
+        <v>1057899.882841112</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.258187511293542e-06</v>
+        <v>2.679610127691678e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.94097222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>853545.1064567787</v>
+        <v>956935.4027945666</v>
       </c>
     </row>
     <row r="4">
@@ -12578,28 +12578,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>636.237488460734</v>
+        <v>709.310993698478</v>
       </c>
       <c r="AB4" t="n">
-        <v>870.5282005289703</v>
+        <v>970.51059417078</v>
       </c>
       <c r="AC4" t="n">
-        <v>787.4462108644876</v>
+        <v>877.886425183294</v>
       </c>
       <c r="AD4" t="n">
-        <v>636237.488460734</v>
+        <v>709310.993698478</v>
       </c>
       <c r="AE4" t="n">
-        <v>870528.2005289702</v>
+        <v>970510.59417078</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.313900835128887e-06</v>
+        <v>2.798264927120639e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.35069444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>787446.2108644876</v>
+        <v>877886.425183294</v>
       </c>
     </row>
     <row r="5">
@@ -12684,28 +12684,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>601.8462174111713</v>
+        <v>664.6269618668678</v>
       </c>
       <c r="AB5" t="n">
-        <v>823.4725462431611</v>
+        <v>909.3719304984149</v>
       </c>
       <c r="AC5" t="n">
-        <v>744.8814821806903</v>
+        <v>822.582749763166</v>
       </c>
       <c r="AD5" t="n">
-        <v>601846.2174111713</v>
+        <v>664626.9618668677</v>
       </c>
       <c r="AE5" t="n">
-        <v>823472.5462431611</v>
+        <v>909371.9304984149</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.343182157666942e-06</v>
+        <v>2.860626481118667e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.05844907407408</v>
       </c>
       <c r="AH5" t="n">
-        <v>744881.4821806904</v>
+        <v>822582.7497631661</v>
       </c>
     </row>
     <row r="6">
@@ -12790,28 +12790,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>567.6951171050133</v>
+        <v>640.8538736887779</v>
       </c>
       <c r="AB6" t="n">
-        <v>776.7455041640635</v>
+        <v>876.8445424585224</v>
       </c>
       <c r="AC6" t="n">
-        <v>702.6140034158065</v>
+        <v>793.159729985325</v>
       </c>
       <c r="AD6" t="n">
-        <v>567695.1171050133</v>
+        <v>640853.8736887779</v>
       </c>
       <c r="AE6" t="n">
-        <v>776745.5041640635</v>
+        <v>876844.5424585224</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.358277497857367e-06</v>
+        <v>2.892775605229452e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.91377314814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>702614.0034158065</v>
+        <v>793159.729985325</v>
       </c>
     </row>
     <row r="7">
@@ -12896,28 +12896,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>568.5122282856258</v>
+        <v>641.6709848693904</v>
       </c>
       <c r="AB7" t="n">
-        <v>777.8635117297786</v>
+        <v>877.9625500242374</v>
       </c>
       <c r="AC7" t="n">
-        <v>703.6253099085833</v>
+        <v>794.1710364781017</v>
       </c>
       <c r="AD7" t="n">
-        <v>568512.2282856258</v>
+        <v>641670.9848693904</v>
       </c>
       <c r="AE7" t="n">
-        <v>777863.5117297786</v>
+        <v>877962.5500242375</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.360520580536266e-06</v>
+        <v>2.897552784314187e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.89351851851852</v>
       </c>
       <c r="AH7" t="n">
-        <v>703625.3099085833</v>
+        <v>794171.0364781016</v>
       </c>
     </row>
   </sheetData>
@@ -13193,28 +13193,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1172.804804945732</v>
+        <v>1271.550969361535</v>
       </c>
       <c r="AB2" t="n">
-        <v>1604.683274623084</v>
+        <v>1739.792133150102</v>
       </c>
       <c r="AC2" t="n">
-        <v>1451.534555080178</v>
+        <v>1573.748813775851</v>
       </c>
       <c r="AD2" t="n">
-        <v>1172804.804945732</v>
+        <v>1271550.969361535</v>
       </c>
       <c r="AE2" t="n">
-        <v>1604683.274623084</v>
+        <v>1739792.133150103</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.550352729837293e-07</v>
+        <v>1.939051790089411e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.57233796296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>1451534.555080178</v>
+        <v>1573748.813775851</v>
       </c>
     </row>
     <row r="3">
@@ -13299,28 +13299,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>873.064632868781</v>
+        <v>960.7536603838122</v>
       </c>
       <c r="AB3" t="n">
-        <v>1194.565547584283</v>
+        <v>1314.545543597213</v>
       </c>
       <c r="AC3" t="n">
-        <v>1080.557888306114</v>
+        <v>1189.087161892552</v>
       </c>
       <c r="AD3" t="n">
-        <v>873064.632868781</v>
+        <v>960753.6603838122</v>
       </c>
       <c r="AE3" t="n">
-        <v>1194565.547584283</v>
+        <v>1314545.543597213</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.146947079524275e-06</v>
+        <v>2.328699107354599e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.63252314814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>1080557.888306114</v>
+        <v>1189087.161892552</v>
       </c>
     </row>
     <row r="4">
@@ -13405,28 +13405,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>788.178652481799</v>
+        <v>864.9812248052014</v>
       </c>
       <c r="AB4" t="n">
-        <v>1078.420804313662</v>
+        <v>1183.505472056898</v>
       </c>
       <c r="AC4" t="n">
-        <v>975.4978363230703</v>
+        <v>1070.55337086415</v>
       </c>
       <c r="AD4" t="n">
-        <v>788178.652481799</v>
+        <v>864981.2248052014</v>
       </c>
       <c r="AE4" t="n">
-        <v>1078420.804313662</v>
+        <v>1183505.472056898</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.214571487631339e-06</v>
+        <v>2.466000035710963e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.81655092592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>975497.8363230702</v>
+        <v>1070553.37086415</v>
       </c>
     </row>
     <row r="5">
@@ -13511,28 +13511,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>747.0106622571266</v>
+        <v>823.6426423799365</v>
       </c>
       <c r="AB5" t="n">
-        <v>1022.092943884717</v>
+        <v>1126.944199853107</v>
       </c>
       <c r="AC5" t="n">
-        <v>924.5458278368156</v>
+        <v>1019.390227095244</v>
       </c>
       <c r="AD5" t="n">
-        <v>747010.6622571265</v>
+        <v>823642.6423799365</v>
       </c>
       <c r="AE5" t="n">
-        <v>1022092.943884717</v>
+        <v>1126944.199853107</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.251515525336485e-06</v>
+        <v>2.541009204975976e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.40856481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>924545.8278368156</v>
+        <v>1019390.227095244</v>
       </c>
     </row>
     <row r="6">
@@ -13617,28 +13617,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>719.7075701575493</v>
+        <v>785.5384359433025</v>
       </c>
       <c r="AB6" t="n">
-        <v>984.7356487466639</v>
+        <v>1074.808343567558</v>
       </c>
       <c r="AC6" t="n">
-        <v>890.753860515445</v>
+        <v>972.230143760454</v>
       </c>
       <c r="AD6" t="n">
-        <v>719707.5701575493</v>
+        <v>785538.4359433025</v>
       </c>
       <c r="AE6" t="n">
-        <v>984735.6487466638</v>
+        <v>1074808.343567558</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.272568407105665e-06</v>
+        <v>2.583753833615221e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.18865740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>890753.860515445</v>
+        <v>972230.143760454</v>
       </c>
     </row>
     <row r="7">
@@ -13723,28 +13723,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>699.0357323374183</v>
+        <v>764.8665981231713</v>
       </c>
       <c r="AB7" t="n">
-        <v>956.4515282640399</v>
+        <v>1046.524223084934</v>
       </c>
       <c r="AC7" t="n">
-        <v>865.1691367946703</v>
+        <v>946.6454200396793</v>
       </c>
       <c r="AD7" t="n">
-        <v>699035.7323374182</v>
+        <v>764866.5981231714</v>
       </c>
       <c r="AE7" t="n">
-        <v>956451.5282640399</v>
+        <v>1046524.223084934</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.287125633893721e-06</v>
+        <v>2.61331003688919e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.03819444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>865169.1367946703</v>
+        <v>946645.4200396793</v>
       </c>
     </row>
     <row r="8">
@@ -13829,28 +13829,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>665.5828741400065</v>
+        <v>742.3001056088372</v>
       </c>
       <c r="AB8" t="n">
-        <v>910.6798518423968</v>
+        <v>1015.647752463435</v>
       </c>
       <c r="AC8" t="n">
-        <v>823.7658449297571</v>
+        <v>918.7157564388979</v>
       </c>
       <c r="AD8" t="n">
-        <v>665582.8741400065</v>
+        <v>742300.1056088372</v>
       </c>
       <c r="AE8" t="n">
-        <v>910679.8518423968</v>
+        <v>1015647.752463436</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.29878301470806e-06</v>
+        <v>2.636978550267946e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.9224537037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>823765.8449297572</v>
+        <v>918715.7564388979</v>
       </c>
     </row>
     <row r="9">
@@ -13935,28 +13935,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>651.2297114455293</v>
+        <v>727.9469429143602</v>
       </c>
       <c r="AB9" t="n">
-        <v>891.0412214269654</v>
+        <v>996.0091220480043</v>
       </c>
       <c r="AC9" t="n">
-        <v>806.0014978381839</v>
+        <v>900.9514093473247</v>
       </c>
       <c r="AD9" t="n">
-        <v>651229.7114455294</v>
+        <v>727946.9429143602</v>
       </c>
       <c r="AE9" t="n">
-        <v>891041.2214269654</v>
+        <v>996009.1220480043</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.305626651206031e-06</v>
+        <v>2.650873498420648e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.85300925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>806001.4978381839</v>
+        <v>900951.4093473246</v>
       </c>
     </row>
     <row r="10">
@@ -14041,28 +14041,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>645.2104970098985</v>
+        <v>721.9277284787293</v>
       </c>
       <c r="AB10" t="n">
-        <v>882.8054666871359</v>
+        <v>987.7733673081747</v>
       </c>
       <c r="AC10" t="n">
-        <v>798.5517519717691</v>
+        <v>893.5016634809098</v>
       </c>
       <c r="AD10" t="n">
-        <v>645210.4970098985</v>
+        <v>721927.7284787293</v>
       </c>
       <c r="AE10" t="n">
-        <v>882805.4666871359</v>
+        <v>987773.3673081747</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.308120518743427e-06</v>
+        <v>2.655936911730532e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.82986111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>798551.7519717691</v>
+        <v>893501.6634809098</v>
       </c>
     </row>
     <row r="11">
@@ -14147,28 +14147,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>648.578495293462</v>
+        <v>725.2957267622927</v>
       </c>
       <c r="AB11" t="n">
-        <v>887.4137105243047</v>
+        <v>992.3816111453436</v>
       </c>
       <c r="AC11" t="n">
-        <v>802.7201914848297</v>
+        <v>897.6701029939703</v>
       </c>
       <c r="AD11" t="n">
-        <v>648578.495293462</v>
+        <v>725295.7267622927</v>
       </c>
       <c r="AE11" t="n">
-        <v>887413.7105243048</v>
+        <v>992381.6111453436</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.308062521823953e-06</v>
+        <v>2.655819157932627e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.82986111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>802720.1914848296</v>
+        <v>897670.1029939703</v>
       </c>
     </row>
   </sheetData>
@@ -14444,28 +14444,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>681.012172221977</v>
+        <v>761.2987377433534</v>
       </c>
       <c r="AB2" t="n">
-        <v>931.7908981707395</v>
+        <v>1041.642519110376</v>
       </c>
       <c r="AC2" t="n">
-        <v>842.8620826260625</v>
+        <v>942.2296190409385</v>
       </c>
       <c r="AD2" t="n">
-        <v>681012.172221977</v>
+        <v>761298.7377433534</v>
       </c>
       <c r="AE2" t="n">
-        <v>931790.8981707395</v>
+        <v>1041642.519110376</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.215437282739165e-06</v>
+        <v>2.706541424538351e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.98842592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>842862.0826260624</v>
+        <v>942229.6190409384</v>
       </c>
     </row>
     <row r="3">
@@ -14550,28 +14550,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>559.8951700395612</v>
+        <v>630.0499959179233</v>
       </c>
       <c r="AB3" t="n">
-        <v>766.0732724797333</v>
+        <v>862.0622002589912</v>
       </c>
       <c r="AC3" t="n">
-        <v>692.9603145448576</v>
+        <v>779.7881937781693</v>
       </c>
       <c r="AD3" t="n">
-        <v>559895.1700395612</v>
+        <v>630049.9959179233</v>
       </c>
       <c r="AE3" t="n">
-        <v>766073.2724797333</v>
+        <v>862062.2002589912</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.352507680818484e-06</v>
+        <v>3.011770427916925e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.4693287037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>692960.3145448576</v>
+        <v>779788.1937781693</v>
       </c>
     </row>
     <row r="4">
@@ -14656,28 +14656,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>519.2658127229648</v>
+        <v>579.5448320134767</v>
       </c>
       <c r="AB4" t="n">
-        <v>710.4823933584256</v>
+        <v>792.9588068743495</v>
       </c>
       <c r="AC4" t="n">
-        <v>642.6749509045986</v>
+        <v>717.2799312709361</v>
       </c>
       <c r="AD4" t="n">
-        <v>519265.8127229648</v>
+        <v>579544.8320134768</v>
       </c>
       <c r="AE4" t="n">
-        <v>710482.3933584256</v>
+        <v>792958.8068743495</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.394944726434222e-06</v>
+        <v>3.106269439527931e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.06134259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>642674.9509045986</v>
+        <v>717279.9312709362</v>
       </c>
     </row>
     <row r="5">
@@ -14762,28 +14762,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>518.2783891425962</v>
+        <v>578.5574084331082</v>
       </c>
       <c r="AB5" t="n">
-        <v>709.1313568537113</v>
+        <v>791.6077703696352</v>
       </c>
       <c r="AC5" t="n">
-        <v>641.4528554277025</v>
+        <v>716.0578357940402</v>
       </c>
       <c r="AD5" t="n">
-        <v>518278.3891425962</v>
+        <v>578557.4084331082</v>
       </c>
       <c r="AE5" t="n">
-        <v>709131.3568537113</v>
+        <v>791607.7703696352</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.398281764145845e-06</v>
+        <v>3.113700370708025e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.02951388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>641452.8554277025</v>
+        <v>716057.8357940402</v>
       </c>
     </row>
   </sheetData>
@@ -15059,28 +15059,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2031.531926323653</v>
+        <v>2173.888008545612</v>
       </c>
       <c r="AB2" t="n">
-        <v>2779.631606459205</v>
+        <v>2974.409478462395</v>
       </c>
       <c r="AC2" t="n">
-        <v>2514.3474671762</v>
+        <v>2690.536012447866</v>
       </c>
       <c r="AD2" t="n">
-        <v>2031531.926323653</v>
+        <v>2173888.008545612</v>
       </c>
       <c r="AE2" t="n">
-        <v>2779631.606459205</v>
+        <v>2974409.478462395</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.085542100481202e-07</v>
+        <v>1.339708557608734e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.98784722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>2514347.4671762</v>
+        <v>2690536.012447866</v>
       </c>
     </row>
     <row r="3">
@@ -15165,28 +15165,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1300.203755712613</v>
+        <v>1395.136346987327</v>
       </c>
       <c r="AB3" t="n">
-        <v>1778.996139507367</v>
+        <v>1908.887099019774</v>
       </c>
       <c r="AC3" t="n">
-        <v>1609.211244789546</v>
+        <v>1726.705593429196</v>
       </c>
       <c r="AD3" t="n">
-        <v>1300203.755712613</v>
+        <v>1395136.346987327</v>
       </c>
       <c r="AE3" t="n">
-        <v>1778996.139507367</v>
+        <v>1908887.099019774</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.506794594847764e-07</v>
+        <v>1.797510182499803e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.38888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1609211.244789546</v>
+        <v>1726705.593429196</v>
       </c>
     </row>
     <row r="4">
@@ -15271,28 +15271,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1123.249212808697</v>
+        <v>1218.181714574861</v>
       </c>
       <c r="AB4" t="n">
-        <v>1536.879127222765</v>
+        <v>1666.769964265624</v>
       </c>
       <c r="AC4" t="n">
-        <v>1390.201540344026</v>
+        <v>1507.69577820245</v>
       </c>
       <c r="AD4" t="n">
-        <v>1123249.212808697</v>
+        <v>1218181.71457486</v>
       </c>
       <c r="AE4" t="n">
-        <v>1536879.127222765</v>
+        <v>1666769.964265624</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.043017641113388e-06</v>
+        <v>1.972099861549878e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.93634259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>1390201.540344026</v>
+        <v>1507695.77820245</v>
       </c>
     </row>
     <row r="5">
@@ -15377,28 +15377,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1054.133680568776</v>
+        <v>1137.189041515898</v>
       </c>
       <c r="AB5" t="n">
-        <v>1442.312206850022</v>
+        <v>1555.952215841797</v>
       </c>
       <c r="AC5" t="n">
-        <v>1304.659954126151</v>
+        <v>1407.454320154505</v>
       </c>
       <c r="AD5" t="n">
-        <v>1054133.680568776</v>
+        <v>1137189.041515898</v>
       </c>
       <c r="AE5" t="n">
-        <v>1442312.206850022</v>
+        <v>1555952.215841797</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.090775056334716e-06</v>
+        <v>2.0623978471577e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.28240740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>1304659.954126151</v>
+        <v>1407454.320154506</v>
       </c>
     </row>
     <row r="6">
@@ -15483,28 +15483,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000.630721845606</v>
+        <v>1095.477882757197</v>
       </c>
       <c r="AB6" t="n">
-        <v>1369.107098341029</v>
+        <v>1498.88116826169</v>
       </c>
       <c r="AC6" t="n">
-        <v>1238.441438429241</v>
+        <v>1355.830053255726</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000630.721845606</v>
+        <v>1095477.882757197</v>
       </c>
       <c r="AE6" t="n">
-        <v>1369107.098341029</v>
+        <v>1498881.16826169</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.120764774799519e-06</v>
+        <v>2.119101317263176e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.90046296296296</v>
       </c>
       <c r="AH6" t="n">
-        <v>1238441.438429241</v>
+        <v>1355830.053255726</v>
       </c>
     </row>
     <row r="7">
@@ -15589,28 +15589,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>972.1975985508889</v>
+        <v>1055.338210844032</v>
       </c>
       <c r="AB7" t="n">
-        <v>1330.203644668327</v>
+        <v>1443.960298312752</v>
       </c>
       <c r="AC7" t="n">
-        <v>1203.250875773722</v>
+        <v>1306.150754052789</v>
       </c>
       <c r="AD7" t="n">
-        <v>972197.5985508888</v>
+        <v>1055338.210844032</v>
       </c>
       <c r="AE7" t="n">
-        <v>1330203.644668327</v>
+        <v>1443960.298312752</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.141601437359444e-06</v>
+        <v>2.158498521806837e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.64583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1203250.875773722</v>
+        <v>1306150.754052789</v>
       </c>
     </row>
     <row r="8">
@@ -15695,28 +15695,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>950.8698337640675</v>
+        <v>1033.839853856618</v>
       </c>
       <c r="AB8" t="n">
-        <v>1301.022055972422</v>
+        <v>1414.545297842</v>
       </c>
       <c r="AC8" t="n">
-        <v>1176.854336946338</v>
+        <v>1279.543079942753</v>
       </c>
       <c r="AD8" t="n">
-        <v>950869.8337640675</v>
+        <v>1033839.853856618</v>
       </c>
       <c r="AE8" t="n">
-        <v>1301022.055972422</v>
+        <v>1414545.297842</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.15667705884983e-06</v>
+        <v>2.187002959202768e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.4693287037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>1176854.336946337</v>
+        <v>1279543.079942753</v>
       </c>
     </row>
     <row r="9">
@@ -15801,28 +15801,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>932.6941568452637</v>
+        <v>1015.664176937814</v>
       </c>
       <c r="AB9" t="n">
-        <v>1276.153292957841</v>
+        <v>1389.676534827419</v>
       </c>
       <c r="AC9" t="n">
-        <v>1154.35901377034</v>
+        <v>1257.047756766756</v>
       </c>
       <c r="AD9" t="n">
-        <v>932694.1568452637</v>
+        <v>1015664.176937814</v>
       </c>
       <c r="AE9" t="n">
-        <v>1276153.292957841</v>
+        <v>1389676.534827419</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.168145299483588e-06</v>
+        <v>2.2086866919361e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.33622685185185</v>
       </c>
       <c r="AH9" t="n">
-        <v>1154359.01377034</v>
+        <v>1257047.756766756</v>
       </c>
     </row>
     <row r="10">
@@ -15907,28 +15907,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>917.1647523318886</v>
+        <v>1000.134772424439</v>
       </c>
       <c r="AB10" t="n">
-        <v>1254.905276593667</v>
+        <v>1368.428518463245</v>
       </c>
       <c r="AC10" t="n">
-        <v>1135.138878266184</v>
+        <v>1237.8276212626</v>
       </c>
       <c r="AD10" t="n">
-        <v>917164.7523318887</v>
+        <v>1000134.772424439</v>
       </c>
       <c r="AE10" t="n">
-        <v>1254905.276593667</v>
+        <v>1368428.518463245</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.177298355388465e-06</v>
+        <v>2.225992957497915e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.23206018518519</v>
       </c>
       <c r="AH10" t="n">
-        <v>1135138.878266184</v>
+        <v>1237827.6212626</v>
       </c>
     </row>
     <row r="11">
@@ -16013,28 +16013,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>905.5436312262522</v>
+        <v>976.8071027003542</v>
       </c>
       <c r="AB11" t="n">
-        <v>1239.004746009255</v>
+        <v>1336.510571602596</v>
       </c>
       <c r="AC11" t="n">
-        <v>1120.755872004214</v>
+        <v>1208.955878453212</v>
       </c>
       <c r="AD11" t="n">
-        <v>905543.6312262522</v>
+        <v>976807.1027003542</v>
       </c>
       <c r="AE11" t="n">
-        <v>1239004.746009255</v>
+        <v>1336510.571602596</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.184190068069784e-06</v>
+        <v>2.239023557450341e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.1568287037037</v>
       </c>
       <c r="AH11" t="n">
-        <v>1120755.872004214</v>
+        <v>1208955.878453212</v>
       </c>
     </row>
     <row r="12">
@@ -16119,28 +16119,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>895.9366529687858</v>
+        <v>967.2001244428877</v>
       </c>
       <c r="AB12" t="n">
-        <v>1225.860054527422</v>
+        <v>1323.365880120763</v>
       </c>
       <c r="AC12" t="n">
-        <v>1108.865691428716</v>
+        <v>1197.065697877714</v>
       </c>
       <c r="AD12" t="n">
-        <v>895936.6529687857</v>
+        <v>967200.1244428877</v>
       </c>
       <c r="AE12" t="n">
-        <v>1225860.054527422</v>
+        <v>1323365.880120763</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.188766596022222e-06</v>
+        <v>2.247676690231248e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.10474537037037</v>
       </c>
       <c r="AH12" t="n">
-        <v>1108865.691428716</v>
+        <v>1197065.697877714</v>
       </c>
     </row>
     <row r="13">
@@ -16225,28 +16225,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>880.6080947986992</v>
+        <v>951.8715662728014</v>
       </c>
       <c r="AB13" t="n">
-        <v>1204.88684499085</v>
+        <v>1302.392670584191</v>
       </c>
       <c r="AC13" t="n">
-        <v>1089.894135574231</v>
+        <v>1178.094142023229</v>
       </c>
       <c r="AD13" t="n">
-        <v>880608.0947986993</v>
+        <v>951871.5662728014</v>
       </c>
       <c r="AE13" t="n">
-        <v>1204886.84499085</v>
+        <v>1302392.670584191</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.196196723756769e-06</v>
+        <v>2.261725305804957e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.02372685185185</v>
       </c>
       <c r="AH13" t="n">
-        <v>1089894.135574231</v>
+        <v>1178094.142023229</v>
       </c>
     </row>
     <row r="14">
@@ -16331,28 +16331,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>860.371031619459</v>
+        <v>943.4263030580303</v>
       </c>
       <c r="AB14" t="n">
-        <v>1177.197602352797</v>
+        <v>1290.837488875024</v>
       </c>
       <c r="AC14" t="n">
-        <v>1064.847515391457</v>
+        <v>1167.641770638585</v>
       </c>
       <c r="AD14" t="n">
-        <v>860371.031619459</v>
+        <v>943426.3030580303</v>
       </c>
       <c r="AE14" t="n">
-        <v>1177197.602352797</v>
+        <v>1290837.488875024</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.199211848054847e-06</v>
+        <v>2.267426193284143e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.99189814814815</v>
       </c>
       <c r="AH14" t="n">
-        <v>1064847.515391457</v>
+        <v>1167641.770638585</v>
       </c>
     </row>
     <row r="15">
@@ -16437,28 +16437,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>851.0255938240351</v>
+        <v>934.0808652626064</v>
       </c>
       <c r="AB15" t="n">
-        <v>1164.41076206948</v>
+        <v>1278.050648591707</v>
       </c>
       <c r="AC15" t="n">
-        <v>1053.281033198337</v>
+        <v>1156.075288445465</v>
       </c>
       <c r="AD15" t="n">
-        <v>851025.5938240351</v>
+        <v>934080.8652626064</v>
       </c>
       <c r="AE15" t="n">
-        <v>1164410.76206948</v>
+        <v>1278050.648591707</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.202173130847601e-06</v>
+        <v>2.273025279201201e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.96006944444444</v>
       </c>
       <c r="AH15" t="n">
-        <v>1053281.033198337</v>
+        <v>1156075.288445465</v>
       </c>
     </row>
     <row r="16">
@@ -16543,28 +16543,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>841.0054735436128</v>
+        <v>924.0607449821839</v>
       </c>
       <c r="AB16" t="n">
-        <v>1150.700791445298</v>
+        <v>1264.340677967525</v>
       </c>
       <c r="AC16" t="n">
-        <v>1040.879522928462</v>
+        <v>1143.67377817559</v>
       </c>
       <c r="AD16" t="n">
-        <v>841005.4735436128</v>
+        <v>924060.7449821839</v>
       </c>
       <c r="AE16" t="n">
-        <v>1150700.791445298</v>
+        <v>1264340.677967525</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.205511304177615e-06</v>
+        <v>2.279336976053157e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.9224537037037</v>
       </c>
       <c r="AH16" t="n">
-        <v>1040879.522928462</v>
+        <v>1143673.77817559</v>
       </c>
     </row>
     <row r="17">
@@ -16649,28 +16649,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>830.1565534477082</v>
+        <v>913.2118248862794</v>
       </c>
       <c r="AB17" t="n">
-        <v>1135.856820349506</v>
+        <v>1249.496706871734</v>
       </c>
       <c r="AC17" t="n">
-        <v>1027.452239600409</v>
+        <v>1130.246494847536</v>
       </c>
       <c r="AD17" t="n">
-        <v>830156.5534477083</v>
+        <v>913211.8248862794</v>
       </c>
       <c r="AE17" t="n">
-        <v>1135856.820349506</v>
+        <v>1249496.706871734</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.209549417076825e-06</v>
+        <v>2.286972093212781e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.87905092592593</v>
       </c>
       <c r="AH17" t="n">
-        <v>1027452.239600409</v>
+        <v>1130246.494847537</v>
       </c>
     </row>
     <row r="18">
@@ -16755,28 +16755,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>819.0736184130068</v>
+        <v>902.128889851578</v>
       </c>
       <c r="AB18" t="n">
-        <v>1120.692659690442</v>
+        <v>1234.332546212669</v>
       </c>
       <c r="AC18" t="n">
-        <v>1013.735325151612</v>
+        <v>1116.529580398741</v>
       </c>
       <c r="AD18" t="n">
-        <v>819073.6184130068</v>
+        <v>902128.889851578</v>
       </c>
       <c r="AE18" t="n">
-        <v>1120692.659690442</v>
+        <v>1234332.546212669</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.2113800282578e-06</v>
+        <v>2.290433346325144e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.86168981481482</v>
       </c>
       <c r="AH18" t="n">
-        <v>1013735.325151612</v>
+        <v>1116529.58039874</v>
       </c>
     </row>
     <row r="19">
@@ -16861,28 +16861,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>809.4903405984368</v>
+        <v>892.5456120370081</v>
       </c>
       <c r="AB19" t="n">
-        <v>1107.580396200169</v>
+        <v>1221.220282722396</v>
       </c>
       <c r="AC19" t="n">
-        <v>1001.874477685673</v>
+        <v>1104.668732932801</v>
       </c>
       <c r="AD19" t="n">
-        <v>809490.3405984368</v>
+        <v>892545.6120370082</v>
       </c>
       <c r="AE19" t="n">
-        <v>1107580.396200169</v>
+        <v>1221220.282722396</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.214287469545232e-06</v>
+        <v>2.295930630680074e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.82986111111111</v>
       </c>
       <c r="AH19" t="n">
-        <v>1001874.477685673</v>
+        <v>1104668.732932801</v>
       </c>
     </row>
     <row r="20">
@@ -16967,28 +16967,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>806.4948916944688</v>
+        <v>889.5501631330401</v>
       </c>
       <c r="AB20" t="n">
-        <v>1103.481890859881</v>
+        <v>1217.121777382108</v>
       </c>
       <c r="AC20" t="n">
-        <v>998.167127942774</v>
+        <v>1100.961383189902</v>
       </c>
       <c r="AD20" t="n">
-        <v>806494.8916944688</v>
+        <v>889550.1631330401</v>
       </c>
       <c r="AE20" t="n">
-        <v>1103481.890859881</v>
+        <v>1217121.777382108</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.214233628039909e-06</v>
+        <v>2.295828829117945e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.82986111111111</v>
       </c>
       <c r="AH20" t="n">
-        <v>998167.127942774</v>
+        <v>1100961.383189902</v>
       </c>
     </row>
     <row r="21">
@@ -17073,28 +17073,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>804.2536893914817</v>
+        <v>887.3089608300531</v>
       </c>
       <c r="AB21" t="n">
-        <v>1100.415378994067</v>
+        <v>1214.055265516294</v>
       </c>
       <c r="AC21" t="n">
-        <v>995.3932796655567</v>
+        <v>1098.187534912685</v>
       </c>
       <c r="AD21" t="n">
-        <v>804253.6893914817</v>
+        <v>887308.9608300531</v>
       </c>
       <c r="AE21" t="n">
-        <v>1100415.378994067</v>
+        <v>1214055.265516294</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.215956556210239e-06</v>
+        <v>2.299086479106051e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.8125</v>
       </c>
       <c r="AH21" t="n">
-        <v>995393.2796655567</v>
+        <v>1098187.534912685</v>
       </c>
     </row>
     <row r="22">
@@ -17179,28 +17179,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>807.6146242727133</v>
+        <v>890.6698957112847</v>
       </c>
       <c r="AB22" t="n">
-        <v>1105.01395837255</v>
+        <v>1218.653844894777</v>
       </c>
       <c r="AC22" t="n">
-        <v>999.5529770823044</v>
+        <v>1102.347232329432</v>
       </c>
       <c r="AD22" t="n">
-        <v>807614.6242727133</v>
+        <v>890669.8957112846</v>
       </c>
       <c r="AE22" t="n">
-        <v>1105013.95837255</v>
+        <v>1218653.844894777</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.215848873199593e-06</v>
+        <v>2.298882875981795e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.8125</v>
       </c>
       <c r="AH22" t="n">
-        <v>999552.9770823044</v>
+        <v>1102347.232329432</v>
       </c>
     </row>
   </sheetData>
@@ -17476,28 +17476,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>584.5706246753822</v>
+        <v>653.082496222953</v>
       </c>
       <c r="AB2" t="n">
-        <v>799.8353181166925</v>
+        <v>893.5762832985318</v>
       </c>
       <c r="AC2" t="n">
-        <v>723.500157931554</v>
+        <v>808.2946169627097</v>
       </c>
       <c r="AD2" t="n">
-        <v>584570.6246753822</v>
+        <v>653082.496222953</v>
       </c>
       <c r="AE2" t="n">
-        <v>799835.3181166925</v>
+        <v>893576.2832985319</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.290185285959734e-06</v>
+        <v>2.957835885587972e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.45023148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>723500.157931554</v>
+        <v>808294.6169627097</v>
       </c>
     </row>
     <row r="3">
@@ -17582,28 +17582,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>486.5494405287556</v>
+        <v>554.9759712217547</v>
       </c>
       <c r="AB3" t="n">
-        <v>665.7184095778334</v>
+        <v>759.3426076374752</v>
       </c>
       <c r="AC3" t="n">
-        <v>602.1831789093803</v>
+        <v>686.8720149085971</v>
       </c>
       <c r="AD3" t="n">
-        <v>486549.4405287555</v>
+        <v>554975.9712217547</v>
       </c>
       <c r="AE3" t="n">
-        <v>665718.4095778334</v>
+        <v>759342.6076374752</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.408874857789022e-06</v>
+        <v>3.229939651320032e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.2349537037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>602183.1789093803</v>
+        <v>686872.0149085971</v>
       </c>
     </row>
     <row r="4">
@@ -17688,28 +17688,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>481.7839358419845</v>
+        <v>540.5815592593282</v>
       </c>
       <c r="AB4" t="n">
-        <v>659.1980358261645</v>
+        <v>739.6475381538461</v>
       </c>
       <c r="AC4" t="n">
-        <v>596.2851004771687</v>
+        <v>669.0566152142819</v>
       </c>
       <c r="AD4" t="n">
-        <v>481783.9358419845</v>
+        <v>540581.5592593282</v>
       </c>
       <c r="AE4" t="n">
-        <v>659198.0358261645</v>
+        <v>739647.538153846</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.416993688435325e-06</v>
+        <v>3.248552612493886e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.1568287037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>596285.1004771687</v>
+        <v>669056.6152142819</v>
       </c>
     </row>
   </sheetData>
@@ -17985,28 +17985,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1507.551291548353</v>
+        <v>1621.33360601433</v>
       </c>
       <c r="AB2" t="n">
-        <v>2062.698185565507</v>
+        <v>2218.380167939298</v>
       </c>
       <c r="AC2" t="n">
-        <v>1865.83716575022</v>
+        <v>2006.661078227291</v>
       </c>
       <c r="AD2" t="n">
-        <v>1507551.291548353</v>
+        <v>1621333.60601433</v>
       </c>
       <c r="AE2" t="n">
-        <v>2062698.185565507</v>
+        <v>2218380.167939298</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.385804296455705e-07</v>
+        <v>1.643606052978975e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.31423611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1865837.16575022</v>
+        <v>2006661.078227291</v>
       </c>
     </row>
     <row r="3">
@@ -18091,28 +18091,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1052.564643116997</v>
+        <v>1143.556376249661</v>
       </c>
       <c r="AB3" t="n">
-        <v>1440.165380587451</v>
+        <v>1564.664284131514</v>
       </c>
       <c r="AC3" t="n">
-        <v>1302.718017948991</v>
+        <v>1415.334920874117</v>
       </c>
       <c r="AD3" t="n">
-        <v>1052564.643116997</v>
+        <v>1143556.376249661</v>
       </c>
       <c r="AE3" t="n">
-        <v>1440165.380587451</v>
+        <v>1564664.284131514</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.055656386268327e-06</v>
+        <v>2.069071927984145e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.3443287037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1302718.01794899</v>
+        <v>1415334.920874116</v>
       </c>
     </row>
     <row r="4">
@@ -18197,28 +18197,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>937.1948943589094</v>
+        <v>1016.876677679488</v>
       </c>
       <c r="AB4" t="n">
-        <v>1282.311400582537</v>
+        <v>1391.335531833934</v>
       </c>
       <c r="AC4" t="n">
-        <v>1159.929400246293</v>
+        <v>1258.548421427386</v>
       </c>
       <c r="AD4" t="n">
-        <v>937194.8943589095</v>
+        <v>1016876.677679488</v>
       </c>
       <c r="AE4" t="n">
-        <v>1282311.400582537</v>
+        <v>1391335.531833934</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.135478540508671e-06</v>
+        <v>2.225522247158301e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.2650462962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>1159929.400246293</v>
+        <v>1258548.421427386</v>
       </c>
     </row>
     <row r="5">
@@ -18303,28 +18303,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>876.8799171916614</v>
+        <v>956.6469518582604</v>
       </c>
       <c r="AB5" t="n">
-        <v>1199.785787913313</v>
+        <v>1308.926563817359</v>
       </c>
       <c r="AC5" t="n">
-        <v>1085.279916224795</v>
+        <v>1184.0044496566</v>
       </c>
       <c r="AD5" t="n">
-        <v>876879.9171916614</v>
+        <v>956646.9518582604</v>
       </c>
       <c r="AE5" t="n">
-        <v>1199785.787913313</v>
+        <v>1308926.56381736</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.175669498955071e-06</v>
+        <v>2.304295970276844e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.77604166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1085279.916224795</v>
+        <v>1184004.4496566</v>
       </c>
     </row>
     <row r="6">
@@ -18409,28 +18409,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>845.6683438337512</v>
+        <v>925.264786299758</v>
       </c>
       <c r="AB6" t="n">
-        <v>1157.080736287585</v>
+        <v>1265.988100416784</v>
       </c>
       <c r="AC6" t="n">
-        <v>1046.65057478931</v>
+        <v>1145.163972938464</v>
       </c>
       <c r="AD6" t="n">
-        <v>845668.3438337513</v>
+        <v>925264.786299758</v>
       </c>
       <c r="AE6" t="n">
-        <v>1157080.736287585</v>
+        <v>1265988.100416784</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.200466984458908e-06</v>
+        <v>2.352898699164748e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.49247685185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>1046650.57478931</v>
+        <v>1145163.972938464</v>
       </c>
     </row>
     <row r="7">
@@ -18515,28 +18515,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>821.4605630027302</v>
+        <v>901.057005468737</v>
       </c>
       <c r="AB7" t="n">
-        <v>1123.958582582665</v>
+        <v>1232.865946711864</v>
       </c>
       <c r="AC7" t="n">
-        <v>1016.689552946753</v>
+        <v>1115.202951095907</v>
       </c>
       <c r="AD7" t="n">
-        <v>821460.5630027301</v>
+        <v>901057.005468737</v>
       </c>
       <c r="AE7" t="n">
-        <v>1123958.582582665</v>
+        <v>1232865.946711864</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.218659270663755e-06</v>
+        <v>2.38855532871005e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.28993055555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1016689.552946753</v>
+        <v>1115202.951095907</v>
       </c>
     </row>
     <row r="8">
@@ -18621,28 +18621,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>802.7548879987366</v>
+        <v>871.1267215072298</v>
       </c>
       <c r="AB8" t="n">
-        <v>1098.364652806062</v>
+        <v>1191.914011764793</v>
       </c>
       <c r="AC8" t="n">
-        <v>993.538271906723</v>
+        <v>1078.159411343783</v>
       </c>
       <c r="AD8" t="n">
-        <v>802754.8879987367</v>
+        <v>871126.7215072298</v>
       </c>
       <c r="AE8" t="n">
-        <v>1098364.652806062</v>
+        <v>1191914.011764793</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.230918072752559e-06</v>
+        <v>2.412582411388268e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.15972222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>993538.271906723</v>
+        <v>1078159.411343783</v>
       </c>
     </row>
     <row r="9">
@@ -18727,28 +18727,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>783.1764264188288</v>
+        <v>851.5482599273219</v>
       </c>
       <c r="AB9" t="n">
-        <v>1071.576537931667</v>
+        <v>1165.125896890398</v>
       </c>
       <c r="AC9" t="n">
-        <v>969.3067771185849</v>
+        <v>1053.927916555645</v>
       </c>
       <c r="AD9" t="n">
-        <v>783176.4264188288</v>
+        <v>851548.2599273218</v>
       </c>
       <c r="AE9" t="n">
-        <v>1071576.537931667</v>
+        <v>1165125.896890398</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.241497586883994e-06</v>
+        <v>2.433318112877691e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.046875</v>
       </c>
       <c r="AH9" t="n">
-        <v>969306.777118585</v>
+        <v>1053927.916555644</v>
       </c>
     </row>
     <row r="10">
@@ -18833,28 +18833,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>759.3376377718129</v>
+        <v>839.0193315838401</v>
       </c>
       <c r="AB10" t="n">
-        <v>1038.95925561169</v>
+        <v>1147.983264393538</v>
       </c>
       <c r="AC10" t="n">
-        <v>939.8024424445828</v>
+        <v>1038.421352844449</v>
       </c>
       <c r="AD10" t="n">
-        <v>759337.6377718128</v>
+        <v>839019.3315838401</v>
       </c>
       <c r="AE10" t="n">
-        <v>1038959.25561169</v>
+        <v>1147983.264393538</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.247934857387247e-06</v>
+        <v>2.445935074101412e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.98032407407407</v>
       </c>
       <c r="AH10" t="n">
-        <v>939802.4424445828</v>
+        <v>1038421.352844449</v>
       </c>
     </row>
     <row r="11">
@@ -18939,28 +18939,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>745.7997827872171</v>
+        <v>825.4814765992443</v>
       </c>
       <c r="AB11" t="n">
-        <v>1020.436165173755</v>
+        <v>1129.460173955604</v>
       </c>
       <c r="AC11" t="n">
-        <v>923.0471697607243</v>
+        <v>1021.666080160591</v>
       </c>
       <c r="AD11" t="n">
-        <v>745799.7827872171</v>
+        <v>825481.4765992443</v>
       </c>
       <c r="AE11" t="n">
-        <v>1020436.165173755</v>
+        <v>1129460.173955604</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.253644436442306e-06</v>
+        <v>2.457125770143322e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.91956018518519</v>
       </c>
       <c r="AH11" t="n">
-        <v>923047.1697607243</v>
+        <v>1021666.080160591</v>
       </c>
     </row>
     <row r="12">
@@ -19045,28 +19045,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>731.0988802652964</v>
+        <v>810.7805740773238</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000.321741785217</v>
+        <v>1109.345750567066</v>
       </c>
       <c r="AC12" t="n">
-        <v>904.8524387096178</v>
+        <v>1003.471349109484</v>
       </c>
       <c r="AD12" t="n">
-        <v>731098.8802652964</v>
+        <v>810780.5740773238</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000321.741785217</v>
+        <v>1109345.750567066</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.258738276579664e-06</v>
+        <v>2.467109626416007e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.86747685185185</v>
       </c>
       <c r="AH12" t="n">
-        <v>904852.4387096178</v>
+        <v>1003471.349109484</v>
       </c>
     </row>
     <row r="13">
@@ -19151,28 +19151,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>719.2398700521798</v>
+        <v>798.9215638642071</v>
       </c>
       <c r="AB13" t="n">
-        <v>984.0957208290248</v>
+        <v>1093.119729610873</v>
       </c>
       <c r="AC13" t="n">
-        <v>890.1750064201209</v>
+        <v>988.7939168199872</v>
       </c>
       <c r="AD13" t="n">
-        <v>719239.8700521798</v>
+        <v>798921.5638642071</v>
       </c>
       <c r="AE13" t="n">
-        <v>984095.7208290248</v>
+        <v>1093119.729610873</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.262992472738336e-06</v>
+        <v>2.475447792094293e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.82407407407407</v>
       </c>
       <c r="AH13" t="n">
-        <v>890175.0064201209</v>
+        <v>988793.9168199872</v>
       </c>
     </row>
     <row r="14">
@@ -19257,28 +19257,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>715.8517849329359</v>
+        <v>795.5334787449631</v>
       </c>
       <c r="AB14" t="n">
-        <v>979.4599932971089</v>
+        <v>1088.484002078958</v>
       </c>
       <c r="AC14" t="n">
-        <v>885.9817062175666</v>
+        <v>984.6006166174329</v>
       </c>
       <c r="AD14" t="n">
-        <v>715851.7849329358</v>
+        <v>795533.4787449631</v>
       </c>
       <c r="AE14" t="n">
-        <v>979459.9932971089</v>
+        <v>1088484.002078958</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.264671760695706e-06</v>
+        <v>2.47873917328309e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.80671296296296</v>
       </c>
       <c r="AH14" t="n">
-        <v>885981.7062175666</v>
+        <v>984600.6166174329</v>
       </c>
     </row>
     <row r="15">
@@ -19363,28 +19363,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>718.8212737800555</v>
+        <v>798.5029675920829</v>
       </c>
       <c r="AB15" t="n">
-        <v>983.5229789423403</v>
+        <v>1092.546987724189</v>
       </c>
       <c r="AC15" t="n">
-        <v>889.6569262152533</v>
+        <v>988.2758366151196</v>
       </c>
       <c r="AD15" t="n">
-        <v>718821.2737800556</v>
+        <v>798502.9675920829</v>
       </c>
       <c r="AE15" t="n">
-        <v>983522.9789423402</v>
+        <v>1092546.987724189</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.264447855634723e-06</v>
+        <v>2.478300322457918e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.80960648148148</v>
       </c>
       <c r="AH15" t="n">
-        <v>889656.9262152533</v>
+        <v>988275.8366151196</v>
       </c>
     </row>
     <row r="16">
@@ -19469,28 +19469,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>721.2449427200571</v>
+        <v>800.9266365320844</v>
       </c>
       <c r="AB16" t="n">
-        <v>986.8391497107774</v>
+        <v>1095.863158492626</v>
       </c>
       <c r="AC16" t="n">
-        <v>892.6566062998257</v>
+        <v>991.2755166996922</v>
       </c>
       <c r="AD16" t="n">
-        <v>721244.9427200571</v>
+        <v>800926.6365320844</v>
       </c>
       <c r="AE16" t="n">
-        <v>986839.1497107774</v>
+        <v>1095863.158492626</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.264391879369477e-06</v>
+        <v>2.478190609751624e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.80960648148148</v>
       </c>
       <c r="AH16" t="n">
-        <v>892656.6062998257</v>
+        <v>991275.5166996921</v>
       </c>
     </row>
     <row r="17">
@@ -19575,28 +19575,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>724.3287513643402</v>
+        <v>804.0104451763676</v>
       </c>
       <c r="AB17" t="n">
-        <v>991.0585527459216</v>
+        <v>1100.08256152777</v>
       </c>
       <c r="AC17" t="n">
-        <v>896.473315431265</v>
+        <v>995.0922258311314</v>
       </c>
       <c r="AD17" t="n">
-        <v>724328.7513643402</v>
+        <v>804010.4451763676</v>
       </c>
       <c r="AE17" t="n">
-        <v>991058.5527459215</v>
+        <v>1100082.56152777</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.264391879369477e-06</v>
+        <v>2.478190609751624e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.80960648148148</v>
       </c>
       <c r="AH17" t="n">
-        <v>896473.3154312649</v>
+        <v>995092.2258311313</v>
       </c>
     </row>
   </sheetData>
@@ -19872,28 +19872,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1756.162523569827</v>
+        <v>1884.181832641306</v>
       </c>
       <c r="AB2" t="n">
-        <v>2402.859041170766</v>
+        <v>2578.020707655677</v>
       </c>
       <c r="AC2" t="n">
-        <v>2173.533546715273</v>
+        <v>2331.978029591806</v>
       </c>
       <c r="AD2" t="n">
-        <v>1756162.523569827</v>
+        <v>1884181.832641306</v>
       </c>
       <c r="AE2" t="n">
-        <v>2402859.041170766</v>
+        <v>2578020.707655677</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.703062810712926e-07</v>
+        <v>1.481070260112647e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.60185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>2173533.546715273</v>
+        <v>2331978.029591806</v>
       </c>
     </row>
     <row r="3">
@@ -19978,28 +19978,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1168.648764169488</v>
+        <v>1273.290977854386</v>
       </c>
       <c r="AB3" t="n">
-        <v>1598.996796281449</v>
+        <v>1742.172889533779</v>
       </c>
       <c r="AC3" t="n">
-        <v>1446.390786250445</v>
+        <v>1575.902354111682</v>
       </c>
       <c r="AD3" t="n">
-        <v>1168648.764169488</v>
+        <v>1273290.977854386</v>
       </c>
       <c r="AE3" t="n">
-        <v>1598996.796281449</v>
+        <v>1742172.889533779</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.000822286720466e-06</v>
+        <v>1.924284094448955e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.85648148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>1446390.786250445</v>
+        <v>1575902.354111682</v>
       </c>
     </row>
     <row r="4">
@@ -20084,28 +20084,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1031.533906361332</v>
+        <v>1124.615583634797</v>
       </c>
       <c r="AB4" t="n">
-        <v>1411.390198747725</v>
+        <v>1538.748656067061</v>
       </c>
       <c r="AC4" t="n">
-        <v>1276.689099077827</v>
+        <v>1391.892643979323</v>
       </c>
       <c r="AD4" t="n">
-        <v>1031533.906361332</v>
+        <v>1124615.583634797</v>
       </c>
       <c r="AE4" t="n">
-        <v>1411390.198747725</v>
+        <v>1538748.656067061</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.086216866971659e-06</v>
+        <v>2.088472517018937e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1276689.099077827</v>
+        <v>1391892.643979323</v>
       </c>
     </row>
     <row r="5">
@@ -20190,28 +20190,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>970.9793730325071</v>
+        <v>1052.415262548518</v>
       </c>
       <c r="AB5" t="n">
-        <v>1328.53681476976</v>
+        <v>1439.960991503452</v>
       </c>
       <c r="AC5" t="n">
-        <v>1201.743125781264</v>
+        <v>1302.533135472307</v>
       </c>
       <c r="AD5" t="n">
-        <v>970979.373032507</v>
+        <v>1052415.262548518</v>
       </c>
       <c r="AE5" t="n">
-        <v>1328536.81476976</v>
+        <v>1439960.991503452</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.132012932809646e-06</v>
+        <v>2.176524753914207e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.01909722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1201743.125781264</v>
+        <v>1302533.135472307</v>
       </c>
     </row>
     <row r="6">
@@ -20296,28 +20296,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>921.4847798884588</v>
+        <v>1003.005920750491</v>
       </c>
       <c r="AB6" t="n">
-        <v>1260.816128882731</v>
+        <v>1372.356950269073</v>
       </c>
       <c r="AC6" t="n">
-        <v>1140.485607108713</v>
+        <v>1241.381129050469</v>
       </c>
       <c r="AD6" t="n">
-        <v>921484.7798884588</v>
+        <v>1003005.920750491</v>
       </c>
       <c r="AE6" t="n">
-        <v>1260816.128882731</v>
+        <v>1372356.950269073</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.161026248771676e-06</v>
+        <v>2.232308745911329e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.66898148148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>1140485.607108713</v>
+        <v>1241381.129050469</v>
       </c>
     </row>
     <row r="7">
@@ -20402,28 +20402,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>897.9727919945585</v>
+        <v>979.3233406559983</v>
       </c>
       <c r="AB7" t="n">
-        <v>1228.645989770598</v>
+        <v>1339.953399382093</v>
       </c>
       <c r="AC7" t="n">
-        <v>1111.385740922369</v>
+        <v>1212.070127581473</v>
       </c>
       <c r="AD7" t="n">
-        <v>897972.7919945585</v>
+        <v>979323.3406559983</v>
       </c>
       <c r="AE7" t="n">
-        <v>1228645.989770598</v>
+        <v>1339953.399382093</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.178138072174613e-06</v>
+        <v>2.265209701493753e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.4693287037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>1111385.740922369</v>
+        <v>1212070.127581473</v>
       </c>
     </row>
     <row r="8">
@@ -20508,28 +20508,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>878.5212867299966</v>
+        <v>959.8718353914364</v>
       </c>
       <c r="AB8" t="n">
-        <v>1202.031582127777</v>
+        <v>1313.338991739271</v>
       </c>
       <c r="AC8" t="n">
-        <v>1087.311374991422</v>
+        <v>1187.995761650526</v>
       </c>
       <c r="AD8" t="n">
-        <v>878521.2867299967</v>
+        <v>959871.8353914365</v>
       </c>
       <c r="AE8" t="n">
-        <v>1202031.582127776</v>
+        <v>1313338.991739271</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.191739777956434e-06</v>
+        <v>2.291361743110552e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.31597222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1087311.374991422</v>
+        <v>1187995.761650526</v>
       </c>
     </row>
     <row r="9">
@@ -20614,28 +20614,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>861.8809804990569</v>
+        <v>943.2315291604968</v>
       </c>
       <c r="AB9" t="n">
-        <v>1179.263581024106</v>
+        <v>1290.5709906356</v>
       </c>
       <c r="AC9" t="n">
-        <v>1066.716319957996</v>
+        <v>1167.4007066171</v>
       </c>
       <c r="AD9" t="n">
-        <v>861880.980499057</v>
+        <v>943231.5291604969</v>
       </c>
       <c r="AE9" t="n">
-        <v>1179263.581024106</v>
+        <v>1290570.9906356</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.20227013081978e-06</v>
+        <v>2.311608485007428e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.20023148148148</v>
       </c>
       <c r="AH9" t="n">
-        <v>1066716.319957996</v>
+        <v>1167400.7066171</v>
       </c>
     </row>
     <row r="10">
@@ -20720,28 +20720,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>847.8186574675071</v>
+        <v>917.6940105720856</v>
       </c>
       <c r="AB10" t="n">
-        <v>1160.022890266431</v>
+        <v>1255.62943106713</v>
       </c>
       <c r="AC10" t="n">
-        <v>1049.311933721755</v>
+        <v>1135.793920453057</v>
       </c>
       <c r="AD10" t="n">
-        <v>847818.6574675072</v>
+        <v>917694.0105720856</v>
       </c>
       <c r="AE10" t="n">
-        <v>1160022.890266431</v>
+        <v>1255629.43106713</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.210167895467289e-06</v>
+        <v>2.326793541430086e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.11342592592593</v>
       </c>
       <c r="AH10" t="n">
-        <v>1049311.933721755</v>
+        <v>1135793.920453057</v>
       </c>
     </row>
     <row r="11">
@@ -20826,28 +20826,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>834.1918871573657</v>
+        <v>904.0672402619441</v>
       </c>
       <c r="AB11" t="n">
-        <v>1141.378141957418</v>
+        <v>1236.984682758117</v>
       </c>
       <c r="AC11" t="n">
-        <v>1032.446614023285</v>
+        <v>1118.928600754588</v>
       </c>
       <c r="AD11" t="n">
-        <v>834191.8871573657</v>
+        <v>904067.2402619441</v>
       </c>
       <c r="AE11" t="n">
-        <v>1141378.141957418</v>
+        <v>1236984.682758117</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.21680421159471e-06</v>
+        <v>2.339553206896346e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.04108796296296</v>
       </c>
       <c r="AH11" t="n">
-        <v>1032446.614023285</v>
+        <v>1118928.600754588</v>
       </c>
     </row>
     <row r="12">
@@ -20932,28 +20932,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>808.2625915506458</v>
+        <v>889.6983915581062</v>
       </c>
       <c r="AB12" t="n">
-        <v>1105.900535788516</v>
+        <v>1217.32459005266</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000.35494079401</v>
+        <v>1101.144839703826</v>
       </c>
       <c r="AD12" t="n">
-        <v>808262.5915506458</v>
+        <v>889698.3915581062</v>
       </c>
       <c r="AE12" t="n">
-        <v>1105900.535788516</v>
+        <v>1217324.59005266</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.22360506448562e-06</v>
+        <v>2.352629227704745e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.96875</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000354.94079401</v>
+        <v>1101144.839703826</v>
       </c>
     </row>
     <row r="13">
@@ -21038,28 +21038,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>794.4253467145223</v>
+        <v>875.8611467219828</v>
       </c>
       <c r="AB13" t="n">
-        <v>1086.967806947574</v>
+        <v>1198.391861211718</v>
       </c>
       <c r="AC13" t="n">
-        <v>983.2291250213949</v>
+        <v>1084.019023931211</v>
       </c>
       <c r="AD13" t="n">
-        <v>794425.3467145223</v>
+        <v>875861.1467219827</v>
       </c>
       <c r="AE13" t="n">
-        <v>1086967.806947574</v>
+        <v>1198391.861211718</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.228157248275504e-06</v>
+        <v>2.361381725503916e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.9224537037037</v>
       </c>
       <c r="AH13" t="n">
-        <v>983229.1250213949</v>
+        <v>1084019.023931211</v>
       </c>
     </row>
     <row r="14">
@@ -21144,28 +21144,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>785.8385091604774</v>
+        <v>867.2743091679379</v>
       </c>
       <c r="AB14" t="n">
-        <v>1075.218916981592</v>
+        <v>1186.642971245737</v>
       </c>
       <c r="AC14" t="n">
-        <v>972.6015326240966</v>
+        <v>1073.391431533913</v>
       </c>
       <c r="AD14" t="n">
-        <v>785838.5091604774</v>
+        <v>867274.3091679378</v>
       </c>
       <c r="AE14" t="n">
-        <v>1075218.916981592</v>
+        <v>1186642.971245737</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.231777057072279e-06</v>
+        <v>2.368341543030967e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.88483796296296</v>
       </c>
       <c r="AH14" t="n">
-        <v>972601.5326240966</v>
+        <v>1073391.431533913</v>
       </c>
     </row>
     <row r="15">
@@ -21250,28 +21250,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>777.8553098150087</v>
+        <v>859.2911098224691</v>
       </c>
       <c r="AB15" t="n">
-        <v>1064.295951443224</v>
+        <v>1175.720005707368</v>
       </c>
       <c r="AC15" t="n">
-        <v>962.7210395862312</v>
+        <v>1063.510938496048</v>
       </c>
       <c r="AD15" t="n">
-        <v>777855.3098150087</v>
+        <v>859291.1098224692</v>
       </c>
       <c r="AE15" t="n">
-        <v>1064295.951443224</v>
+        <v>1175720.005707368</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.234464490875945e-06</v>
+        <v>2.373508680285899e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.85590277777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>962721.0395862312</v>
+        <v>1063510.938496048</v>
       </c>
     </row>
     <row r="16">
@@ -21356,28 +21356,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>763.7785074707558</v>
+        <v>845.2143074782163</v>
       </c>
       <c r="AB16" t="n">
-        <v>1045.035449451127</v>
+        <v>1156.459503715271</v>
       </c>
       <c r="AC16" t="n">
-        <v>945.2987328719761</v>
+        <v>1046.088631781792</v>
       </c>
       <c r="AD16" t="n">
-        <v>763778.5074707558</v>
+        <v>845214.3074782162</v>
       </c>
       <c r="AE16" t="n">
-        <v>1045035.449451127</v>
+        <v>1156459.503715271</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.238084299672721e-06</v>
+        <v>2.38046849781295e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.81828703703704</v>
       </c>
       <c r="AH16" t="n">
-        <v>945298.7328719761</v>
+        <v>1046088.631781793</v>
       </c>
     </row>
     <row r="17">
@@ -21462,28 +21462,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>757.8174321433505</v>
+        <v>839.253232150811</v>
       </c>
       <c r="AB17" t="n">
-        <v>1036.879243204088</v>
+        <v>1148.303297468232</v>
       </c>
       <c r="AC17" t="n">
-        <v>937.9209435018473</v>
+        <v>1038.710842411664</v>
       </c>
       <c r="AD17" t="n">
-        <v>757817.4321433505</v>
+        <v>839253.232150811</v>
       </c>
       <c r="AE17" t="n">
-        <v>1036879.243204088</v>
+        <v>1148303.297468232</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.239510284956298e-06</v>
+        <v>2.383210244111485e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.80381944444444</v>
       </c>
       <c r="AH17" t="n">
-        <v>937920.9435018473</v>
+        <v>1038710.842411664</v>
       </c>
     </row>
     <row r="18">
@@ -21568,28 +21568,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>761.8473645242929</v>
+        <v>843.2831645317533</v>
       </c>
       <c r="AB18" t="n">
-        <v>1042.393174475763</v>
+        <v>1153.817228739907</v>
       </c>
       <c r="AC18" t="n">
-        <v>942.908632911804</v>
+        <v>1043.698531821621</v>
       </c>
       <c r="AD18" t="n">
-        <v>761847.3645242929</v>
+        <v>843283.1645317533</v>
       </c>
       <c r="AE18" t="n">
-        <v>1042393.174475763</v>
+        <v>1153817.228739907</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.239071520253659e-06</v>
+        <v>2.382366629865782e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.80671296296296</v>
       </c>
       <c r="AH18" t="n">
-        <v>942908.632911804</v>
+        <v>1043698.531821621</v>
       </c>
     </row>
     <row r="19">
@@ -21674,28 +21674,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>765.1825029698485</v>
+        <v>846.618302977309</v>
       </c>
       <c r="AB19" t="n">
-        <v>1046.956458032896</v>
+        <v>1158.38051229704</v>
       </c>
       <c r="AC19" t="n">
-        <v>947.0364030908531</v>
+        <v>1047.82630200067</v>
       </c>
       <c r="AD19" t="n">
-        <v>765182.5029698486</v>
+        <v>846618.302977309</v>
       </c>
       <c r="AE19" t="n">
-        <v>1046956.458032896</v>
+        <v>1158380.51229704</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.239016674665829e-06</v>
+        <v>2.38226117808507e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.80671296296296</v>
       </c>
       <c r="AH19" t="n">
-        <v>947036.4030908531</v>
+        <v>1047826.30200067</v>
       </c>
     </row>
   </sheetData>
@@ -21971,28 +21971,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2358.311571718488</v>
+        <v>2503.425836990923</v>
       </c>
       <c r="AB2" t="n">
-        <v>3226.745933789093</v>
+        <v>3425.297673524404</v>
       </c>
       <c r="AC2" t="n">
-        <v>2918.789830634501</v>
+        <v>3098.392070998584</v>
       </c>
       <c r="AD2" t="n">
-        <v>2358311.571718488</v>
+        <v>2503425.836990923</v>
       </c>
       <c r="AE2" t="n">
-        <v>3226745.933789093</v>
+        <v>3425297.673524404</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.511931404958771e-07</v>
+        <v>1.213123430072625e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.52141203703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>2918789.830634501</v>
+        <v>3098392.070998583</v>
       </c>
     </row>
     <row r="3">
@@ -22077,28 +22077,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1427.990794434461</v>
+        <v>1536.741152534215</v>
       </c>
       <c r="AB3" t="n">
-        <v>1953.840003452869</v>
+        <v>2102.637041132145</v>
       </c>
       <c r="AC3" t="n">
-        <v>1767.368255754994</v>
+        <v>1901.964312996114</v>
       </c>
       <c r="AD3" t="n">
-        <v>1427990.794434461</v>
+        <v>1536741.152534215</v>
       </c>
       <c r="AE3" t="n">
-        <v>1953840.003452869</v>
+        <v>2102637.041132146</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.028085373560432e-07</v>
+        <v>1.681863830294981e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.96759259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>1767368.255754994</v>
+        <v>1901964.312996114</v>
       </c>
     </row>
     <row r="4">
@@ -22183,28 +22183,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1231.633528943087</v>
+        <v>1328.205780257451</v>
       </c>
       <c r="AB4" t="n">
-        <v>1685.175330136398</v>
+        <v>1817.30974485175</v>
       </c>
       <c r="AC4" t="n">
-        <v>1524.34456178661</v>
+        <v>1643.868253413345</v>
       </c>
       <c r="AD4" t="n">
-        <v>1231633.528943087</v>
+        <v>1328205.780257451</v>
       </c>
       <c r="AE4" t="n">
-        <v>1685175.330136398</v>
+        <v>1817309.74485175</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.000850135291038e-06</v>
+        <v>1.864507891143245e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.30381944444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>1524344.56178661</v>
+        <v>1643868.253413345</v>
       </c>
     </row>
     <row r="5">
@@ -22289,28 +22289,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1137.213097410657</v>
+        <v>1233.870600071042</v>
       </c>
       <c r="AB5" t="n">
-        <v>1555.985130178278</v>
+        <v>1688.236189546279</v>
       </c>
       <c r="AC5" t="n">
-        <v>1407.484093192908</v>
+        <v>1527.113297070355</v>
       </c>
       <c r="AD5" t="n">
-        <v>1137213.097410657</v>
+        <v>1233870.600071042</v>
       </c>
       <c r="AE5" t="n">
-        <v>1555985.130178278</v>
+        <v>1688236.189546279</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.053364857295095e-06</v>
+        <v>1.96233883518292e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.54282407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>1407484.093192908</v>
+        <v>1527113.297070355</v>
       </c>
     </row>
     <row r="6">
@@ -22395,28 +22395,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1091.327152230698</v>
+        <v>1175.891888960264</v>
       </c>
       <c r="AB6" t="n">
-        <v>1493.201955638027</v>
+        <v>1608.907159164302</v>
       </c>
       <c r="AC6" t="n">
-        <v>1350.69285671404</v>
+        <v>1455.35531800904</v>
       </c>
       <c r="AD6" t="n">
-        <v>1091327.152230698</v>
+        <v>1175891.888960264</v>
       </c>
       <c r="AE6" t="n">
-        <v>1493201.955638027</v>
+        <v>1608907.159164302</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.084439597029351e-06</v>
+        <v>2.020228718399946e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.12615740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>1350692.85671404</v>
+        <v>1455355.31800904</v>
       </c>
     </row>
     <row r="7">
@@ -22501,28 +22501,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1044.939398426545</v>
+        <v>1129.589386502132</v>
       </c>
       <c r="AB7" t="n">
-        <v>1429.732184399921</v>
+        <v>1545.554032578845</v>
       </c>
       <c r="AC7" t="n">
-        <v>1293.280551362516</v>
+        <v>1398.048524908228</v>
       </c>
       <c r="AD7" t="n">
-        <v>1044939.398426545</v>
+        <v>1129589.386502132</v>
       </c>
       <c r="AE7" t="n">
-        <v>1429732.184399921</v>
+        <v>1545554.032578845</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.107626540817432e-06</v>
+        <v>2.063424236030367e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.828125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1293280.551362516</v>
+        <v>1398048.524908228</v>
       </c>
     </row>
     <row r="8">
@@ -22607,28 +22607,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1022.187826555591</v>
+        <v>1106.837814631177</v>
       </c>
       <c r="AB8" t="n">
-        <v>1398.602480037569</v>
+        <v>1514.424328216494</v>
       </c>
       <c r="AC8" t="n">
-        <v>1265.121822293693</v>
+        <v>1369.889795839405</v>
       </c>
       <c r="AD8" t="n">
-        <v>1022187.826555591</v>
+        <v>1106837.814631178</v>
       </c>
       <c r="AE8" t="n">
-        <v>1398602.480037569</v>
+        <v>1514424.328216494</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.123137441570647e-06</v>
+        <v>2.092319867687247e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.63715277777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1265121.822293693</v>
+        <v>1369889.795839405</v>
       </c>
     </row>
     <row r="9">
@@ -22713,28 +22713,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1003.00971971897</v>
+        <v>1087.489115593965</v>
       </c>
       <c r="AB9" t="n">
-        <v>1372.362148185345</v>
+        <v>1487.950584589423</v>
       </c>
       <c r="AC9" t="n">
-        <v>1241.385830884907</v>
+        <v>1345.942669147969</v>
       </c>
       <c r="AD9" t="n">
-        <v>1003009.71971897</v>
+        <v>1087489.115593965</v>
       </c>
       <c r="AE9" t="n">
-        <v>1372362.148185345</v>
+        <v>1487950.584589423</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.135683801565568e-06</v>
+        <v>2.115692784761242e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.48668981481481</v>
       </c>
       <c r="AH9" t="n">
-        <v>1241385.830884907</v>
+        <v>1345942.669147969</v>
       </c>
     </row>
     <row r="10">
@@ -22819,28 +22819,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>987.596015708568</v>
+        <v>1072.075411583563</v>
       </c>
       <c r="AB10" t="n">
-        <v>1351.272438353684</v>
+        <v>1466.860874757761</v>
       </c>
       <c r="AC10" t="n">
-        <v>1222.308893359986</v>
+        <v>1326.865731623048</v>
       </c>
       <c r="AD10" t="n">
-        <v>987596.0157085679</v>
+        <v>1072075.411583563</v>
       </c>
       <c r="AE10" t="n">
-        <v>1351272.438353684</v>
+        <v>1466860.874757761</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.145371497257849e-06</v>
+        <v>2.133740227058884e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.37384259259259</v>
       </c>
       <c r="AH10" t="n">
-        <v>1222308.893359986</v>
+        <v>1326865.731623048</v>
       </c>
     </row>
     <row r="11">
@@ -22925,28 +22925,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>974.2595202758087</v>
+        <v>1058.738916150803</v>
       </c>
       <c r="AB11" t="n">
-        <v>1333.024856937929</v>
+        <v>1448.613293342006</v>
       </c>
       <c r="AC11" t="n">
-        <v>1205.802835503909</v>
+        <v>1310.359673766971</v>
       </c>
       <c r="AD11" t="n">
-        <v>974259.5202758086</v>
+        <v>1058738.916150803</v>
       </c>
       <c r="AE11" t="n">
-        <v>1333024.856937929</v>
+        <v>1448613.293342006</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.153312231431849e-06</v>
+        <v>2.148533212548754e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.28125</v>
       </c>
       <c r="AH11" t="n">
-        <v>1205802.835503909</v>
+        <v>1310359.673766971</v>
       </c>
     </row>
     <row r="12">
@@ -23031,28 +23031,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>960.3771360032366</v>
+        <v>1032.934358148005</v>
       </c>
       <c r="AB12" t="n">
-        <v>1314.030366328626</v>
+        <v>1413.306358665824</v>
       </c>
       <c r="AC12" t="n">
-        <v>1188.621152419423</v>
+        <v>1278.42238338269</v>
       </c>
       <c r="AD12" t="n">
-        <v>960377.1360032366</v>
+        <v>1032934.358148005</v>
       </c>
       <c r="AE12" t="n">
-        <v>1314030.366328626</v>
+        <v>1413306.358665824</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.160723583327583e-06</v>
+        <v>2.162339999005966e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.19733796296296</v>
       </c>
       <c r="AH12" t="n">
-        <v>1188621.152419423</v>
+        <v>1278422.383382689</v>
       </c>
     </row>
     <row r="13">
@@ -23137,28 +23137,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>951.7969350883402</v>
+        <v>1024.354157233108</v>
       </c>
       <c r="AB13" t="n">
-        <v>1302.290556905115</v>
+        <v>1401.566549242313</v>
       </c>
       <c r="AC13" t="n">
-        <v>1178.001773930367</v>
+        <v>1267.803004893633</v>
       </c>
       <c r="AD13" t="n">
-        <v>951796.9350883402</v>
+        <v>1024354.157233108</v>
       </c>
       <c r="AE13" t="n">
-        <v>1302290.556905115</v>
+        <v>1401566.549242313</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.165593900287637e-06</v>
+        <v>2.17141303010642e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.14236111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>1178001.773930367</v>
+        <v>1267803.004893633</v>
       </c>
     </row>
     <row r="14">
@@ -23243,28 +23243,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>939.8417872169219</v>
+        <v>1012.39900936169</v>
       </c>
       <c r="AB14" t="n">
-        <v>1285.932996163541</v>
+        <v>1385.208988500739</v>
       </c>
       <c r="AC14" t="n">
-        <v>1163.205355827987</v>
+        <v>1253.006586791253</v>
       </c>
       <c r="AD14" t="n">
-        <v>939841.7872169219</v>
+        <v>1012399.00936169</v>
       </c>
       <c r="AE14" t="n">
-        <v>1285932.996163541</v>
+        <v>1385208.988500739</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.170993599525958e-06</v>
+        <v>2.181472260239532e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.08159722222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>1163205.355827987</v>
+        <v>1253006.586791253</v>
       </c>
     </row>
     <row r="15">
@@ -23349,28 +23349,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>931.6646276765176</v>
+        <v>1004.221849821286</v>
       </c>
       <c r="AB15" t="n">
-        <v>1274.744645729541</v>
+        <v>1374.020638066739</v>
       </c>
       <c r="AC15" t="n">
-        <v>1153.08480585646</v>
+        <v>1242.886036819726</v>
       </c>
       <c r="AD15" t="n">
-        <v>931664.6276765176</v>
+        <v>1004221.849821286</v>
       </c>
       <c r="AE15" t="n">
-        <v>1274744.645729541</v>
+        <v>1374020.638066739</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.174222831423384e-06</v>
+        <v>2.187488074338745e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.04398148148148</v>
       </c>
       <c r="AH15" t="n">
-        <v>1153084.80585646</v>
+        <v>1242886.036819726</v>
       </c>
     </row>
     <row r="16">
@@ -23455,28 +23455,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>924.5448387911719</v>
+        <v>997.1020609359401</v>
       </c>
       <c r="AB16" t="n">
-        <v>1265.003036473694</v>
+        <v>1364.279028810892</v>
       </c>
       <c r="AC16" t="n">
-        <v>1144.272922115557</v>
+        <v>1234.074153078823</v>
       </c>
       <c r="AD16" t="n">
-        <v>924544.8387911719</v>
+        <v>997102.0609359401</v>
       </c>
       <c r="AE16" t="n">
-        <v>1265003.036473694</v>
+        <v>1364279.028810892</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.177399125092985e-06</v>
+        <v>2.193405268534693e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>13.00925925925926</v>
       </c>
       <c r="AH16" t="n">
-        <v>1144272.922115557</v>
+        <v>1234074.153078822</v>
       </c>
     </row>
     <row r="17">
@@ -23561,28 +23561,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>901.7151245645051</v>
+        <v>986.2797717855202</v>
       </c>
       <c r="AB17" t="n">
-        <v>1233.76641429286</v>
+        <v>1349.471495349587</v>
       </c>
       <c r="AC17" t="n">
-        <v>1116.017479314786</v>
+        <v>1220.67982982856</v>
       </c>
       <c r="AD17" t="n">
-        <v>901715.1245645051</v>
+        <v>986279.7717855202</v>
       </c>
       <c r="AE17" t="n">
-        <v>1233766.41429286</v>
+        <v>1349471.495349586</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.180998924585198e-06</v>
+        <v>2.200111421956768e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.97164351851852</v>
       </c>
       <c r="AH17" t="n">
-        <v>1116017.479314786</v>
+        <v>1220679.82982856</v>
       </c>
     </row>
     <row r="18">
@@ -23667,28 +23667,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>894.8298180391502</v>
+        <v>979.3944652601654</v>
       </c>
       <c r="AB18" t="n">
-        <v>1224.345634146583</v>
+        <v>1340.05071520331</v>
       </c>
       <c r="AC18" t="n">
-        <v>1107.495805203523</v>
+        <v>1212.158155717296</v>
       </c>
       <c r="AD18" t="n">
-        <v>894829.8180391502</v>
+        <v>979394.4652601654</v>
       </c>
       <c r="AE18" t="n">
-        <v>1224345.634146583</v>
+        <v>1340050.71520331</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.183010577242612e-06</v>
+        <v>2.203858978280868e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.94849537037037</v>
       </c>
       <c r="AH18" t="n">
-        <v>1107495.805203523</v>
+        <v>1212158.155717297</v>
       </c>
     </row>
     <row r="19">
@@ -23773,28 +23773,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>886.6534475316288</v>
+        <v>971.2180947526441</v>
       </c>
       <c r="AB19" t="n">
-        <v>1213.158363302184</v>
+        <v>1328.863444358911</v>
       </c>
       <c r="AC19" t="n">
-        <v>1097.37623178708</v>
+        <v>1202.038582300853</v>
       </c>
       <c r="AD19" t="n">
-        <v>886653.4475316288</v>
+        <v>971218.0947526441</v>
       </c>
       <c r="AE19" t="n">
-        <v>1213158.363302184</v>
+        <v>1328863.444358911</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.184545785849585e-06</v>
+        <v>2.206718955475577e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.93113425925926</v>
       </c>
       <c r="AH19" t="n">
-        <v>1097376.23178708</v>
+        <v>1202038.582300853</v>
       </c>
     </row>
     <row r="20">
@@ -23879,28 +23879,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>878.2720858616223</v>
+        <v>962.8367330826374</v>
       </c>
       <c r="AB20" t="n">
-        <v>1201.690614505701</v>
+        <v>1317.395695562427</v>
       </c>
       <c r="AC20" t="n">
-        <v>1087.002948840646</v>
+        <v>1191.66529935442</v>
       </c>
       <c r="AD20" t="n">
-        <v>878272.0858616222</v>
+        <v>962836.7330826373</v>
       </c>
       <c r="AE20" t="n">
-        <v>1201690.614505701</v>
+        <v>1317395.695562427</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.187880894202665e-06</v>
+        <v>2.212932009381322e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.89641203703704</v>
       </c>
       <c r="AH20" t="n">
-        <v>1087002.948840646</v>
+        <v>1191665.29935442</v>
       </c>
     </row>
     <row r="21">
@@ -23985,28 +23985,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>872.2910269464965</v>
+        <v>956.8556741675117</v>
       </c>
       <c r="AB21" t="n">
-        <v>1193.507065832329</v>
+        <v>1309.212146889055</v>
       </c>
       <c r="AC21" t="n">
-        <v>1079.600426566978</v>
+        <v>1184.262777080752</v>
       </c>
       <c r="AD21" t="n">
-        <v>872291.0269464965</v>
+        <v>956855.6741675116</v>
       </c>
       <c r="AE21" t="n">
-        <v>1193507.065832329</v>
+        <v>1309212.146889055</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.189257288126159e-06</v>
+        <v>2.215496126866233e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.87905092592593</v>
       </c>
       <c r="AH21" t="n">
-        <v>1079600.426566978</v>
+        <v>1184262.777080752</v>
       </c>
     </row>
     <row r="22">
@@ -24091,28 +24091,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>861.6481298363444</v>
+        <v>946.2127770573597</v>
       </c>
       <c r="AB22" t="n">
-        <v>1178.944984474736</v>
+        <v>1294.650065531463</v>
       </c>
       <c r="AC22" t="n">
-        <v>1066.428129816145</v>
+        <v>1171.090480329918</v>
       </c>
       <c r="AD22" t="n">
-        <v>861648.1298363444</v>
+        <v>946212.7770573597</v>
       </c>
       <c r="AE22" t="n">
-        <v>1178944.984474736</v>
+        <v>1294650.065531463</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.191798323061839e-06</v>
+        <v>2.220229882222992e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.85300925925926</v>
       </c>
       <c r="AH22" t="n">
-        <v>1066428.129816145</v>
+        <v>1171090.480329918</v>
       </c>
     </row>
     <row r="23">
@@ -24197,28 +24197,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>856.3206494094795</v>
+        <v>940.8852966304947</v>
       </c>
       <c r="AB23" t="n">
-        <v>1171.655690722851</v>
+        <v>1287.360771779578</v>
       </c>
       <c r="AC23" t="n">
-        <v>1059.834516029351</v>
+        <v>1164.496866543125</v>
       </c>
       <c r="AD23" t="n">
-        <v>856320.6494094796</v>
+        <v>940885.2966304948</v>
       </c>
       <c r="AE23" t="n">
-        <v>1171655.690722851</v>
+        <v>1287360.771779577</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.193015902301853e-06</v>
+        <v>2.222498139998105e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.83854166666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>1059834.516029351</v>
+        <v>1164496.866543125</v>
       </c>
     </row>
     <row r="24">
@@ -24303,28 +24303,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>854.5269739678231</v>
+        <v>939.0916211888382</v>
       </c>
       <c r="AB24" t="n">
-        <v>1169.201504852201</v>
+        <v>1284.906585908928</v>
       </c>
       <c r="AC24" t="n">
-        <v>1057.614554213725</v>
+        <v>1162.276904727498</v>
       </c>
       <c r="AD24" t="n">
-        <v>854526.9739678231</v>
+        <v>939091.6211888382</v>
       </c>
       <c r="AE24" t="n">
-        <v>1169201.504852201</v>
+        <v>1284906.585908927</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.192962964074026e-06</v>
+        <v>2.222399520094839e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>12.84143518518519</v>
       </c>
       <c r="AH24" t="n">
-        <v>1057614.554213725</v>
+        <v>1162276.904727498</v>
       </c>
     </row>
     <row r="25">
@@ -24409,28 +24409,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>854.1205473096765</v>
+        <v>938.6851945306918</v>
       </c>
       <c r="AB25" t="n">
-        <v>1168.645413968246</v>
+        <v>1284.350495024973</v>
       </c>
       <c r="AC25" t="n">
-        <v>1057.111535863256</v>
+        <v>1161.77388637703</v>
       </c>
       <c r="AD25" t="n">
-        <v>854120.5473096764</v>
+        <v>938685.1945306917</v>
       </c>
       <c r="AE25" t="n">
-        <v>1168645.413968246</v>
+        <v>1284350.495024973</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.192751211162719e-06</v>
+        <v>2.222005040481776e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12.84143518518519</v>
       </c>
       <c r="AH25" t="n">
-        <v>1057111.535863256</v>
+        <v>1161773.88637703</v>
       </c>
     </row>
     <row r="26">
@@ -24515,28 +24515,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>854.7226743879538</v>
+        <v>939.287321608969</v>
       </c>
       <c r="AB26" t="n">
-        <v>1169.469270800717</v>
+        <v>1285.174351857444</v>
       </c>
       <c r="AC26" t="n">
-        <v>1057.856764955926</v>
+        <v>1162.5191154697</v>
       </c>
       <c r="AD26" t="n">
-        <v>854722.6743879538</v>
+        <v>939287.321608969</v>
       </c>
       <c r="AE26" t="n">
-        <v>1169469.270800717</v>
+        <v>1285174.351857444</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.194709925592306e-06</v>
+        <v>2.225653976902611e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>12.82118055555556</v>
       </c>
       <c r="AH26" t="n">
-        <v>1057856.764955926</v>
+        <v>1162519.1154697</v>
       </c>
     </row>
   </sheetData>
@@ -24812,28 +24812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1282.871255451171</v>
+        <v>1382.870355507132</v>
       </c>
       <c r="AB2" t="n">
-        <v>1755.281047993718</v>
+        <v>1892.104228339219</v>
       </c>
       <c r="AC2" t="n">
-        <v>1587.75948832562</v>
+        <v>1711.524456371487</v>
       </c>
       <c r="AD2" t="n">
-        <v>1282871.255451171</v>
+        <v>1382870.355507132</v>
       </c>
       <c r="AE2" t="n">
-        <v>1755281.047993718</v>
+        <v>1892104.228339219</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.141607347658453e-07</v>
+        <v>1.832432774850413e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.12789351851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>1587759.48832562</v>
+        <v>1711524.456371487</v>
       </c>
     </row>
     <row r="3">
@@ -24918,28 +24918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>929.4150787278362</v>
+        <v>1018.293605786137</v>
       </c>
       <c r="AB3" t="n">
-        <v>1271.66671361486</v>
+        <v>1393.274235379908</v>
       </c>
       <c r="AC3" t="n">
-        <v>1150.3006272629</v>
+        <v>1260.30209782792</v>
       </c>
       <c r="AD3" t="n">
-        <v>929415.0787278363</v>
+        <v>1018293.605786137</v>
       </c>
       <c r="AE3" t="n">
-        <v>1271666.71361486</v>
+        <v>1393274.235379908</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.114437648027101e-06</v>
+        <v>2.233887317743025e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.86979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1150300.627262899</v>
+        <v>1260302.09782792</v>
       </c>
     </row>
     <row r="4">
@@ -25024,28 +25024,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>834.4571982126704</v>
+        <v>923.2503844163995</v>
       </c>
       <c r="AB4" t="n">
-        <v>1141.741152247984</v>
+        <v>1263.231906890834</v>
       </c>
       <c r="AC4" t="n">
-        <v>1032.774979121207</v>
+        <v>1142.670826654289</v>
       </c>
       <c r="AD4" t="n">
-        <v>834457.1982126704</v>
+        <v>923250.3844163995</v>
       </c>
       <c r="AE4" t="n">
-        <v>1141741.152247984</v>
+        <v>1263231.906890834</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.186942815939239e-06</v>
+        <v>2.379223735044154e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.96122685185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>1032774.979121207</v>
+        <v>1142670.826654289</v>
       </c>
     </row>
     <row r="5">
@@ -25130,28 +25130,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>792.6219367001385</v>
+        <v>870.465321123902</v>
       </c>
       <c r="AB5" t="n">
-        <v>1084.500301805059</v>
+        <v>1191.009054581398</v>
       </c>
       <c r="AC5" t="n">
-        <v>980.9971151065166</v>
+        <v>1077.340822003856</v>
       </c>
       <c r="AD5" t="n">
-        <v>792621.9367001385</v>
+        <v>870465.321123902</v>
       </c>
       <c r="AE5" t="n">
-        <v>1084500.301805059</v>
+        <v>1191009.054581398</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.224455363318743e-06</v>
+        <v>2.454417537044344e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.53298611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>980997.1151065166</v>
+        <v>1077340.822003856</v>
       </c>
     </row>
     <row r="6">
@@ -25236,28 +25236,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>762.4524718821948</v>
+        <v>840.125264105366</v>
       </c>
       <c r="AB6" t="n">
-        <v>1043.221109058297</v>
+        <v>1149.496450059789</v>
       </c>
       <c r="AC6" t="n">
-        <v>943.6575505797946</v>
+        <v>1039.790122194483</v>
       </c>
       <c r="AD6" t="n">
-        <v>762452.4718821947</v>
+        <v>840125.264105366</v>
       </c>
       <c r="AE6" t="n">
-        <v>1043221.109058297</v>
+        <v>1149496.450059789</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.247306518134654e-06</v>
+        <v>2.500222616430719e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.28703703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>943657.5505797946</v>
+        <v>1039790.122194482</v>
       </c>
     </row>
     <row r="7">
@@ -25342,28 +25342,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>741.0701246232071</v>
+        <v>807.7931150664125</v>
       </c>
       <c r="AB7" t="n">
-        <v>1013.964838215965</v>
+        <v>1105.258177350947</v>
       </c>
       <c r="AC7" t="n">
-        <v>917.1934571652212</v>
+        <v>999.7738881441669</v>
       </c>
       <c r="AD7" t="n">
-        <v>741070.1246232071</v>
+        <v>807793.1150664125</v>
       </c>
       <c r="AE7" t="n">
-        <v>1013964.838215965</v>
+        <v>1105258.177350947</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.262769705604067e-06</v>
+        <v>2.531218534812476e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.12210648148148</v>
       </c>
       <c r="AH7" t="n">
-        <v>917193.4571652212</v>
+        <v>999773.8881441669</v>
       </c>
     </row>
     <row r="8">
@@ -25448,28 +25448,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>709.7137600751664</v>
+        <v>787.471803644358</v>
       </c>
       <c r="AB8" t="n">
-        <v>971.0616768961635</v>
+        <v>1077.453662550305</v>
       </c>
       <c r="AC8" t="n">
-        <v>878.3849133468162</v>
+        <v>974.6229972122165</v>
       </c>
       <c r="AD8" t="n">
-        <v>709713.7600751665</v>
+        <v>787471.8036443581</v>
       </c>
       <c r="AE8" t="n">
-        <v>971061.6768961635</v>
+        <v>1077453.662550305</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.27559842409721e-06</v>
+        <v>2.556933667099564e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.99189814814815</v>
       </c>
       <c r="AH8" t="n">
-        <v>878384.9133468162</v>
+        <v>974622.9972122165</v>
       </c>
     </row>
     <row r="9">
@@ -25554,28 +25554,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>693.546284524899</v>
+        <v>771.3043280940906</v>
       </c>
       <c r="AB9" t="n">
-        <v>948.9406235896055</v>
+        <v>1055.332609243747</v>
       </c>
       <c r="AC9" t="n">
-        <v>858.3750623207429</v>
+        <v>954.6131461861431</v>
       </c>
       <c r="AD9" t="n">
-        <v>693546.284524899</v>
+        <v>771304.3280940906</v>
       </c>
       <c r="AE9" t="n">
-        <v>948940.6235896054</v>
+        <v>1055332.609243747</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.282528222926096e-06</v>
+        <v>2.570824430522499e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.91956018518519</v>
       </c>
       <c r="AH9" t="n">
-        <v>858375.0623207429</v>
+        <v>954613.1461861432</v>
       </c>
     </row>
     <row r="10">
@@ -25660,28 +25660,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>676.4908435571479</v>
+        <v>754.2488871263397</v>
       </c>
       <c r="AB10" t="n">
-        <v>925.6046168245772</v>
+        <v>1031.996602478719</v>
       </c>
       <c r="AC10" t="n">
-        <v>837.2662112890778</v>
+        <v>933.5042951544777</v>
       </c>
       <c r="AD10" t="n">
-        <v>676490.8435571479</v>
+        <v>754248.8871263397</v>
       </c>
       <c r="AE10" t="n">
-        <v>925604.6168245772</v>
+        <v>1031996.602478719</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.289629834949086e-06</v>
+        <v>2.585059593038566e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.85011574074074</v>
       </c>
       <c r="AH10" t="n">
-        <v>837266.2112890778</v>
+        <v>933504.2951544777</v>
       </c>
     </row>
     <row r="11">
@@ -25766,28 +25766,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>667.4641821232847</v>
+        <v>745.2222256924763</v>
       </c>
       <c r="AB11" t="n">
-        <v>913.2539404225683</v>
+        <v>1019.64592607671</v>
       </c>
       <c r="AC11" t="n">
-        <v>826.0942661085934</v>
+        <v>922.3323499739936</v>
       </c>
       <c r="AD11" t="n">
-        <v>667464.1821232847</v>
+        <v>745222.2256924763</v>
       </c>
       <c r="AE11" t="n">
-        <v>913253.9404225684</v>
+        <v>1019645.92607671</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.292665201378267e-06</v>
+        <v>2.591143977017207e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.81828703703704</v>
       </c>
       <c r="AH11" t="n">
-        <v>826094.2661085934</v>
+        <v>922332.3499739936</v>
       </c>
     </row>
     <row r="12">
@@ -25872,28 +25872,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>668.8198730636302</v>
+        <v>746.5779166328218</v>
       </c>
       <c r="AB12" t="n">
-        <v>915.1088565760126</v>
+        <v>1021.500842230154</v>
       </c>
       <c r="AC12" t="n">
-        <v>827.772151667744</v>
+        <v>924.0102355331441</v>
       </c>
       <c r="AD12" t="n">
-        <v>668819.8730636302</v>
+        <v>746577.9166328218</v>
       </c>
       <c r="AE12" t="n">
-        <v>915108.8565760126</v>
+        <v>1021500.842230154</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.292378846054759e-06</v>
+        <v>2.590569978528656e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.82407407407407</v>
       </c>
       <c r="AH12" t="n">
-        <v>827772.1516677439</v>
+        <v>924010.2355331441</v>
       </c>
     </row>
   </sheetData>
@@ -26169,28 +26169,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>972.7781702010708</v>
+        <v>1057.854910910027</v>
       </c>
       <c r="AB2" t="n">
-        <v>1330.99800841312</v>
+        <v>1447.403758372017</v>
       </c>
       <c r="AC2" t="n">
-        <v>1203.969426557608</v>
+        <v>1309.265575116925</v>
       </c>
       <c r="AD2" t="n">
-        <v>972778.1702010708</v>
+        <v>1057854.910910027</v>
       </c>
       <c r="AE2" t="n">
-        <v>1330998.008413119</v>
+        <v>1447403.758372017</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.04621295999079e-06</v>
+        <v>2.188742940279922e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.49884259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>1203969.426557608</v>
+        <v>1309265.575116924</v>
       </c>
     </row>
     <row r="3">
@@ -26275,28 +26275,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>758.8945587120799</v>
+        <v>833.3260504141637</v>
       </c>
       <c r="AB3" t="n">
-        <v>1038.353015294894</v>
+        <v>1140.193465927348</v>
       </c>
       <c r="AC3" t="n">
-        <v>939.2540608527586</v>
+        <v>1031.375001810821</v>
       </c>
       <c r="AD3" t="n">
-        <v>758894.5587120799</v>
+        <v>833326.0504141636</v>
       </c>
       <c r="AE3" t="n">
-        <v>1038353.015294894</v>
+        <v>1140193.465927348</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.218265088439979e-06</v>
+        <v>2.548686752777344e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.16956018518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>939254.0608527586</v>
+        <v>1031375.001810821</v>
       </c>
     </row>
     <row r="4">
@@ -26381,28 +26381,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>688.0913528342863</v>
+        <v>762.4375036817983</v>
       </c>
       <c r="AB4" t="n">
-        <v>941.4769453959075</v>
+        <v>1043.200628906164</v>
       </c>
       <c r="AC4" t="n">
-        <v>851.6237070985133</v>
+        <v>943.6390250246372</v>
       </c>
       <c r="AD4" t="n">
-        <v>688091.3528342863</v>
+        <v>762437.5036817982</v>
       </c>
       <c r="AE4" t="n">
-        <v>941476.9453959075</v>
+        <v>1043200.628906164</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.279235017453527e-06</v>
+        <v>2.676239657206042e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.49537037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>851623.7070985133</v>
+        <v>943639.0250246372</v>
       </c>
     </row>
     <row r="5">
@@ -26487,28 +26487,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>653.4968694805156</v>
+        <v>717.368453030299</v>
       </c>
       <c r="AB5" t="n">
-        <v>894.143247070387</v>
+        <v>981.5351654985953</v>
       </c>
       <c r="AC5" t="n">
-        <v>808.8074705079176</v>
+        <v>887.8588268966656</v>
       </c>
       <c r="AD5" t="n">
-        <v>653496.8694805156</v>
+        <v>717368.4530302989</v>
       </c>
       <c r="AE5" t="n">
-        <v>894143.247070387</v>
+        <v>981535.1654985953</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.310018269284242e-06</v>
+        <v>2.740640145156344e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.17708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>808807.4705079176</v>
+        <v>887858.8268966656</v>
       </c>
     </row>
     <row r="6">
@@ -26593,28 +26593,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>615.7164860749289</v>
+        <v>690.1478882684615</v>
       </c>
       <c r="AB6" t="n">
-        <v>842.4504597419808</v>
+        <v>944.2907879048864</v>
       </c>
       <c r="AC6" t="n">
-        <v>762.0481702508517</v>
+        <v>854.169000427688</v>
       </c>
       <c r="AD6" t="n">
-        <v>615716.4860749289</v>
+        <v>690147.8882684616</v>
       </c>
       <c r="AE6" t="n">
-        <v>842450.4597419808</v>
+        <v>944290.7879048864</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.328929685622103e-06</v>
+        <v>2.780204010815734e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.98900462962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>762048.1702508518</v>
+        <v>854169.000427688</v>
       </c>
     </row>
     <row r="7">
@@ -26699,28 +26699,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>596.1892668774598</v>
+        <v>670.6206690709926</v>
       </c>
       <c r="AB7" t="n">
-        <v>815.732456955893</v>
+        <v>917.5727851187987</v>
       </c>
       <c r="AC7" t="n">
-        <v>737.8800961517157</v>
+        <v>830.0009263285521</v>
       </c>
       <c r="AD7" t="n">
-        <v>596189.2668774598</v>
+        <v>670620.6690709926</v>
       </c>
       <c r="AE7" t="n">
-        <v>815732.456955893</v>
+        <v>917572.7851187987</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.339906659143134e-06</v>
+        <v>2.803168525898788e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.88194444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>737880.0961517157</v>
+        <v>830000.9263285521</v>
       </c>
     </row>
     <row r="8">
@@ -26805,28 +26805,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>595.4355178487757</v>
+        <v>669.8669200423084</v>
       </c>
       <c r="AB8" t="n">
-        <v>814.7011442817872</v>
+        <v>916.5414724446928</v>
       </c>
       <c r="AC8" t="n">
-        <v>736.9472105117701</v>
+        <v>829.0680406886063</v>
       </c>
       <c r="AD8" t="n">
-        <v>595435.5178487757</v>
+        <v>669866.9200423084</v>
       </c>
       <c r="AE8" t="n">
-        <v>814701.1442817871</v>
+        <v>916541.4724446927</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.340264603931863e-06</v>
+        <v>2.803917368781931e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.87905092592593</v>
       </c>
       <c r="AH8" t="n">
-        <v>736947.2105117701</v>
+        <v>829068.0406886063</v>
       </c>
     </row>
     <row r="9">
@@ -26911,28 +26911,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>599.0516909880678</v>
+        <v>673.4830931816005</v>
       </c>
       <c r="AB9" t="n">
-        <v>819.6489519052659</v>
+        <v>921.4892800681715</v>
       </c>
       <c r="AC9" t="n">
-        <v>741.4228063199557</v>
+        <v>833.5436364967918</v>
       </c>
       <c r="AD9" t="n">
-        <v>599051.6909880678</v>
+        <v>673483.0931816004</v>
       </c>
       <c r="AE9" t="n">
-        <v>819648.9519052659</v>
+        <v>921489.2800681716</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.340204946467075e-06</v>
+        <v>2.80379256163474e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.87905092592593</v>
       </c>
       <c r="AH9" t="n">
-        <v>741422.8063199557</v>
+        <v>833543.6364967918</v>
       </c>
     </row>
   </sheetData>
@@ -50957,28 +50957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>781.1823874788527</v>
+        <v>863.1348769014123</v>
       </c>
       <c r="AB2" t="n">
-        <v>1068.848205883202</v>
+        <v>1180.979217399813</v>
       </c>
       <c r="AC2" t="n">
-        <v>966.8388332515876</v>
+        <v>1068.268218405916</v>
       </c>
       <c r="AD2" t="n">
-        <v>781182.3874788526</v>
+        <v>863134.8769014124</v>
       </c>
       <c r="AE2" t="n">
-        <v>1068848.205883202</v>
+        <v>1180979.217399813</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.15378439032785e-06</v>
+        <v>2.508160854084934e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.47743055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>966838.8332515876</v>
+        <v>1068268.218405916</v>
       </c>
     </row>
     <row r="3">
@@ -51063,28 +51063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>627.3520544788172</v>
+        <v>699.2097508990751</v>
       </c>
       <c r="AB3" t="n">
-        <v>858.3707577572303</v>
+        <v>956.689628137256</v>
       </c>
       <c r="AC3" t="n">
-        <v>776.4490573678044</v>
+        <v>865.3845127501618</v>
       </c>
       <c r="AD3" t="n">
-        <v>627352.0544788172</v>
+        <v>699209.7508990751</v>
       </c>
       <c r="AE3" t="n">
-        <v>858370.7577572303</v>
+        <v>956689.628137256</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.30263590666668e-06</v>
+        <v>2.831742581730037e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.70949074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>776449.0573678043</v>
+        <v>865384.5127501618</v>
       </c>
     </row>
     <row r="4">
@@ -51169,28 +51169,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>577.2834486275474</v>
+        <v>638.8758493534625</v>
       </c>
       <c r="AB4" t="n">
-        <v>789.864682360527</v>
+        <v>874.1381222986688</v>
       </c>
       <c r="AC4" t="n">
-        <v>714.4811056580817</v>
+        <v>790.7116067670433</v>
       </c>
       <c r="AD4" t="n">
-        <v>577283.4486275474</v>
+        <v>638875.8493534625</v>
       </c>
       <c r="AE4" t="n">
-        <v>789864.682360527</v>
+        <v>874138.1222986688</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.354906733507057e-06</v>
+        <v>2.945371820252178e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.17997685185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>714481.1056580817</v>
+        <v>790711.6067670434</v>
       </c>
     </row>
     <row r="5">
@@ -51275,28 +51275,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>538.1747777328115</v>
+        <v>609.9471332984979</v>
       </c>
       <c r="AB5" t="n">
-        <v>736.3544734895587</v>
+        <v>834.556576747387</v>
       </c>
       <c r="AC5" t="n">
-        <v>666.077836019709</v>
+        <v>754.9076683701276</v>
       </c>
       <c r="AD5" t="n">
-        <v>538174.7777328115</v>
+        <v>609947.1332984979</v>
       </c>
       <c r="AE5" t="n">
-        <v>736354.4734895587</v>
+        <v>834556.5767473869</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.3775553680412e-06</v>
+        <v>2.994606685113602e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.96296296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>666077.836019709</v>
+        <v>754907.6683701276</v>
       </c>
     </row>
     <row r="6">
@@ -51381,28 +51381,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>539.9729774336581</v>
+        <v>611.7453329993444</v>
       </c>
       <c r="AB6" t="n">
-        <v>738.814849651229</v>
+        <v>837.0169529090573</v>
       </c>
       <c r="AC6" t="n">
-        <v>668.303397333669</v>
+        <v>757.1332296840877</v>
       </c>
       <c r="AD6" t="n">
-        <v>539972.9774336581</v>
+        <v>611745.3329993444</v>
       </c>
       <c r="AE6" t="n">
-        <v>738814.849651229</v>
+        <v>837016.9529090573</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.378295922848855e-06</v>
+        <v>2.99621654445512e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.95717592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>668303.397333669</v>
+        <v>757133.2296840877</v>
       </c>
     </row>
     <row r="7">
@@ -51487,28 +51487,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>543.8573501665103</v>
+        <v>615.6297057321967</v>
       </c>
       <c r="AB7" t="n">
-        <v>744.1296197907479</v>
+        <v>842.3317230485761</v>
       </c>
       <c r="AC7" t="n">
-        <v>673.110933270399</v>
+        <v>761.9407656208176</v>
       </c>
       <c r="AD7" t="n">
-        <v>543857.3501665103</v>
+        <v>615629.7057321967</v>
       </c>
       <c r="AE7" t="n">
-        <v>744129.619790748</v>
+        <v>842331.7230485762</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.378234209948217e-06</v>
+        <v>2.996082389509993e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.95717592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>673110.933270399</v>
+        <v>761940.7656208177</v>
       </c>
     </row>
   </sheetData>
@@ -51784,28 +51784,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>470.2440070004955</v>
+        <v>546.1723440196768</v>
       </c>
       <c r="AB2" t="n">
-        <v>643.4085960795095</v>
+        <v>747.2970965109711</v>
       </c>
       <c r="AC2" t="n">
-        <v>582.0025826993166</v>
+        <v>675.9761104580257</v>
       </c>
       <c r="AD2" t="n">
-        <v>470244.0070004954</v>
+        <v>546172.3440196768</v>
       </c>
       <c r="AE2" t="n">
-        <v>643408.5960795095</v>
+        <v>747297.0965109711</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.378585852591635e-06</v>
+        <v>3.279003621920639e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.90335648148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>582002.5826993166</v>
+        <v>675976.1104580257</v>
       </c>
     </row>
     <row r="3">
@@ -51890,28 +51890,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>436.662683287581</v>
+        <v>503.0787324742728</v>
       </c>
       <c r="AB3" t="n">
-        <v>597.461147472057</v>
+        <v>688.3345160385849</v>
       </c>
       <c r="AC3" t="n">
-        <v>540.4402940993102</v>
+        <v>622.6408359114225</v>
       </c>
       <c r="AD3" t="n">
-        <v>436662.683287581</v>
+        <v>503078.7324742728</v>
       </c>
       <c r="AE3" t="n">
-        <v>597461.1474720569</v>
+        <v>688334.5160385849</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.432833765591805e-06</v>
+        <v>3.408033745706397e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.37673611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>540440.2940993102</v>
+        <v>622640.8359114225</v>
       </c>
     </row>
     <row r="4">
@@ -51996,28 +51996,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>441.5040049088274</v>
+        <v>507.9200540955192</v>
       </c>
       <c r="AB4" t="n">
-        <v>604.0852572982823</v>
+        <v>694.9586258648101</v>
       </c>
       <c r="AC4" t="n">
-        <v>546.432208180717</v>
+        <v>628.6327499928293</v>
       </c>
       <c r="AD4" t="n">
-        <v>441504.0049088274</v>
+        <v>507920.0540955192</v>
       </c>
       <c r="AE4" t="n">
-        <v>604085.2572982822</v>
+        <v>694958.6258648101</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.432833765591805e-06</v>
+        <v>3.408033745706397e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.37673611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>546432.208180717</v>
+        <v>628632.7499928293</v>
       </c>
     </row>
   </sheetData>
@@ -52293,28 +52293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1622.418256689749</v>
+        <v>1749.003394293295</v>
       </c>
       <c r="AB2" t="n">
-        <v>2219.864234844817</v>
+        <v>2393.063604656122</v>
       </c>
       <c r="AC2" t="n">
-        <v>2008.003507870248</v>
+        <v>2164.672972913605</v>
       </c>
       <c r="AD2" t="n">
-        <v>1622418.256689749</v>
+        <v>1749003.394293295</v>
       </c>
       <c r="AE2" t="n">
-        <v>2219864.234844816</v>
+        <v>2393063.604656122</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.036985540159322e-07</v>
+        <v>1.559639889267e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.94212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>2008003.507870248</v>
+        <v>2164672.972913605</v>
       </c>
     </row>
     <row r="3">
@@ -52399,28 +52399,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1110.366561509097</v>
+        <v>1202.552611918325</v>
       </c>
       <c r="AB3" t="n">
-        <v>1519.252515372188</v>
+        <v>1645.385536503607</v>
       </c>
       <c r="AC3" t="n">
-        <v>1374.257187589363</v>
+        <v>1488.352250212806</v>
       </c>
       <c r="AD3" t="n">
-        <v>1110366.561509097</v>
+        <v>1202552.611918325</v>
       </c>
       <c r="AE3" t="n">
-        <v>1519252.515372188</v>
+        <v>1645385.536503606</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.027542089530329e-06</v>
+        <v>1.994025773375343e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.59895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1374257.187589363</v>
+        <v>1488352.250212806</v>
       </c>
     </row>
     <row r="4">
@@ -52505,28 +52505,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>984.1405954813673</v>
+        <v>1064.718138243422</v>
       </c>
       <c r="AB4" t="n">
-        <v>1346.544579956446</v>
+        <v>1456.794328793789</v>
       </c>
       <c r="AC4" t="n">
-        <v>1218.03225513259</v>
+        <v>1317.759922677391</v>
       </c>
       <c r="AD4" t="n">
-        <v>984140.5954813673</v>
+        <v>1064718.138243422</v>
       </c>
       <c r="AE4" t="n">
-        <v>1346544.579956446</v>
+        <v>1456794.328793789</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.110576353261109e-06</v>
+        <v>2.155160255008208e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.43287037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>1218032.25513259</v>
+        <v>1317759.922677391</v>
       </c>
     </row>
     <row r="5">
@@ -52611,28 +52611,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>918.7810287491042</v>
+        <v>1010.796397449189</v>
       </c>
       <c r="AB5" t="n">
-        <v>1257.116737292784</v>
+        <v>1383.016224179808</v>
       </c>
       <c r="AC5" t="n">
-        <v>1137.139280259982</v>
+        <v>1251.023096819548</v>
       </c>
       <c r="AD5" t="n">
-        <v>918781.0287491041</v>
+        <v>1010796.397449189</v>
       </c>
       <c r="AE5" t="n">
-        <v>1257116.737292784</v>
+        <v>1383016.224179808</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.153395223083585e-06</v>
+        <v>2.238253620119752e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.89756944444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>1137139.280259982</v>
+        <v>1251023.096819548</v>
       </c>
     </row>
     <row r="6">
@@ -52717,28 +52717,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>883.5512839102255</v>
+        <v>964.2140780183005</v>
       </c>
       <c r="AB6" t="n">
-        <v>1208.91384617758</v>
+        <v>1319.280239667571</v>
       </c>
       <c r="AC6" t="n">
-        <v>1093.536805419631</v>
+        <v>1193.369985215143</v>
       </c>
       <c r="AD6" t="n">
-        <v>883551.2839102255</v>
+        <v>964214.0780183005</v>
       </c>
       <c r="AE6" t="n">
-        <v>1208913.84617758</v>
+        <v>1319280.239667571</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.180704023630132e-06</v>
+        <v>2.291248482991668e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.57638888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1093536.805419631</v>
+        <v>1193369.985215143</v>
       </c>
     </row>
     <row r="7">
@@ -52823,28 +52823,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>860.6757105200287</v>
+        <v>941.1679124275115</v>
       </c>
       <c r="AB7" t="n">
-        <v>1177.61447746604</v>
+        <v>1287.747459181185</v>
       </c>
       <c r="AC7" t="n">
-        <v>1065.224604528981</v>
+        <v>1164.846649041842</v>
       </c>
       <c r="AD7" t="n">
-        <v>860675.7105200287</v>
+        <v>941167.9124275115</v>
       </c>
       <c r="AE7" t="n">
-        <v>1177614.47746604</v>
+        <v>1287747.459181185</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.197654313624541e-06</v>
+        <v>2.324141846153547e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.38252314814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>1065224.604528981</v>
+        <v>1164846.649041842</v>
       </c>
     </row>
     <row r="8">
@@ -52929,28 +52929,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>839.6167926102947</v>
+        <v>920.1089945177777</v>
       </c>
       <c r="AB8" t="n">
-        <v>1148.800736928054</v>
+        <v>1258.933718643198</v>
       </c>
       <c r="AC8" t="n">
-        <v>1039.1608069476</v>
+        <v>1138.782851460462</v>
       </c>
       <c r="AD8" t="n">
-        <v>839616.7926102948</v>
+        <v>920108.9945177777</v>
       </c>
       <c r="AE8" t="n">
-        <v>1148800.736928054</v>
+        <v>1258933.718643198</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.211724162181992e-06</v>
+        <v>2.351445487470924e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.22627314814815</v>
       </c>
       <c r="AH8" t="n">
-        <v>1039160.8069476</v>
+        <v>1138782.851460462</v>
       </c>
     </row>
     <row r="9">
@@ -53035,28 +53035,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>824.4560457264467</v>
+        <v>893.5956730419192</v>
       </c>
       <c r="AB9" t="n">
-        <v>1128.057134196625</v>
+        <v>1222.657022514738</v>
       </c>
       <c r="AC9" t="n">
-        <v>1020.39694454703</v>
+        <v>1105.968352295839</v>
       </c>
       <c r="AD9" t="n">
-        <v>824456.0457264468</v>
+        <v>893595.6730419192</v>
       </c>
       <c r="AE9" t="n">
-        <v>1128057.134196625</v>
+        <v>1222657.022514738</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.220919417538435e-06</v>
+        <v>2.369289599512989e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.12789351851852</v>
       </c>
       <c r="AH9" t="n">
-        <v>1020396.94454703</v>
+        <v>1105968.352295839</v>
       </c>
     </row>
     <row r="10">
@@ -53141,28 +53141,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>810.5925162083383</v>
+        <v>879.7321435238109</v>
       </c>
       <c r="AB10" t="n">
-        <v>1109.088441494192</v>
+        <v>1203.688329812305</v>
       </c>
       <c r="AC10" t="n">
-        <v>1003.23859725339</v>
+        <v>1088.810005002199</v>
       </c>
       <c r="AD10" t="n">
-        <v>810592.5162083383</v>
+        <v>879732.1435238109</v>
       </c>
       <c r="AE10" t="n">
-        <v>1109088.441494192</v>
+        <v>1203688.329812305</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.227677376294376e-06</v>
+        <v>2.382403946917398e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.05555555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>1003238.59725339</v>
+        <v>1088810.005002199</v>
       </c>
     </row>
     <row r="11">
@@ -53247,28 +53247,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>785.2444840225086</v>
+        <v>865.8219372760119</v>
       </c>
       <c r="AB11" t="n">
-        <v>1074.406145581284</v>
+        <v>1184.655771949078</v>
       </c>
       <c r="AC11" t="n">
-        <v>971.8663309855018</v>
+        <v>1071.593887749076</v>
       </c>
       <c r="AD11" t="n">
-        <v>785244.4840225086</v>
+        <v>865821.9372760119</v>
       </c>
       <c r="AE11" t="n">
-        <v>1074406.145581284</v>
+        <v>1184655.771949078</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.235155445409556e-06</v>
+        <v>2.396915724782933e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.97743055555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>971866.3309855018</v>
+        <v>1071593.887749076</v>
       </c>
     </row>
     <row r="12">
@@ -53353,28 +53353,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>771.9540676506509</v>
+        <v>852.5315209041545</v>
       </c>
       <c r="AB12" t="n">
-        <v>1056.22161156952</v>
+        <v>1166.471237937313</v>
       </c>
       <c r="AC12" t="n">
-        <v>955.417303377666</v>
+        <v>1055.14486014124</v>
       </c>
       <c r="AD12" t="n">
-        <v>771954.067650651</v>
+        <v>852531.5209041545</v>
       </c>
       <c r="AE12" t="n">
-        <v>1056221.61156952</v>
+        <v>1166471.237937313</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.239642286878665e-06</v>
+        <v>2.405622791502254e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.93113425925926</v>
       </c>
       <c r="AH12" t="n">
-        <v>955417.303377666</v>
+        <v>1055144.86014124</v>
       </c>
     </row>
     <row r="13">
@@ -53459,28 +53459,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>759.644969633557</v>
+        <v>840.2224228870606</v>
       </c>
       <c r="AB13" t="n">
-        <v>1039.379760623453</v>
+        <v>1149.629386991247</v>
       </c>
       <c r="AC13" t="n">
-        <v>940.182815048206</v>
+        <v>1039.91037181178</v>
       </c>
       <c r="AD13" t="n">
-        <v>759644.969633557</v>
+        <v>840222.4228870606</v>
       </c>
       <c r="AE13" t="n">
-        <v>1039379.760623453</v>
+        <v>1149629.386991247</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.244406093870557e-06</v>
+        <v>2.414867331475854e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.87905092592593</v>
       </c>
       <c r="AH13" t="n">
-        <v>940182.8150482059</v>
+        <v>1039910.37181178</v>
       </c>
     </row>
     <row r="14">
@@ -53565,28 +53565,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>747.5676054965514</v>
+        <v>828.145058750055</v>
       </c>
       <c r="AB14" t="n">
-        <v>1022.8549781955</v>
+        <v>1133.104604563294</v>
       </c>
       <c r="AC14" t="n">
-        <v>925.2351346624993</v>
+        <v>1024.962691426073</v>
       </c>
       <c r="AD14" t="n">
-        <v>747567.6054965515</v>
+        <v>828145.058750055</v>
       </c>
       <c r="AE14" t="n">
-        <v>1022854.9781955</v>
+        <v>1133104.604563294</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.247785073248528e-06</v>
+        <v>2.421424505178059e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.8443287037037</v>
       </c>
       <c r="AH14" t="n">
-        <v>925235.1346624993</v>
+        <v>1024962.691426073</v>
       </c>
     </row>
     <row r="15">
@@ -53671,28 +53671,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>738.5977847346826</v>
+        <v>819.1752379881862</v>
       </c>
       <c r="AB15" t="n">
-        <v>1010.582073708548</v>
+        <v>1120.831700076342</v>
       </c>
       <c r="AC15" t="n">
-        <v>914.1335389546521</v>
+        <v>1013.861095718226</v>
       </c>
       <c r="AD15" t="n">
-        <v>738597.7847346826</v>
+        <v>819175.2379881862</v>
       </c>
       <c r="AE15" t="n">
-        <v>1010582.073708548</v>
+        <v>1120831.700076342</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.250277762953588e-06</v>
+        <v>2.42626176446657e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.81828703703704</v>
       </c>
       <c r="AH15" t="n">
-        <v>914133.538954652</v>
+        <v>1013861.095718226</v>
       </c>
     </row>
     <row r="16">
@@ -53777,28 +53777,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>736.521034616156</v>
+        <v>817.0984878696595</v>
       </c>
       <c r="AB16" t="n">
-        <v>1007.74057257663</v>
+        <v>1117.990198944424</v>
       </c>
       <c r="AC16" t="n">
-        <v>911.5632267026931</v>
+        <v>1011.290783466267</v>
       </c>
       <c r="AD16" t="n">
-        <v>736521.034616156</v>
+        <v>817098.4878696594</v>
       </c>
       <c r="AE16" t="n">
-        <v>1007740.572576631</v>
+        <v>1117990.198944425</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.252327307822193e-06</v>
+        <v>2.430239066548235e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.79803240740741</v>
       </c>
       <c r="AH16" t="n">
-        <v>911563.2267026932</v>
+        <v>1011290.783466267</v>
       </c>
     </row>
     <row r="17">
@@ -53883,28 +53883,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>739.7568215945222</v>
+        <v>820.3342748480256</v>
       </c>
       <c r="AB17" t="n">
-        <v>1012.167919073278</v>
+        <v>1122.417545441072</v>
       </c>
       <c r="AC17" t="n">
-        <v>915.5680334635201</v>
+        <v>1015.295590227094</v>
       </c>
       <c r="AD17" t="n">
-        <v>739756.8215945222</v>
+        <v>820334.2748480256</v>
       </c>
       <c r="AE17" t="n">
-        <v>1012167.919073278</v>
+        <v>1122417.545441072</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.25238270092675e-06</v>
+        <v>2.430346561199091e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.79803240740741</v>
       </c>
       <c r="AH17" t="n">
-        <v>915568.0334635201</v>
+        <v>1015295.590227094</v>
       </c>
     </row>
   </sheetData>
@@ -54180,28 +54180,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2190.800531884102</v>
+        <v>2334.557159479027</v>
       </c>
       <c r="AB2" t="n">
-        <v>2997.549939021989</v>
+        <v>3194.244098992355</v>
       </c>
       <c r="AC2" t="n">
-        <v>2711.467979929492</v>
+        <v>2889.389925334154</v>
       </c>
       <c r="AD2" t="n">
-        <v>2190800.531884102</v>
+        <v>2334557.159479027</v>
       </c>
       <c r="AE2" t="n">
-        <v>2997549.939021989</v>
+        <v>3194244.098992355</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.791887752073756e-07</v>
+        <v>1.274424539989065e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.74016203703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>2711467.979929492</v>
+        <v>2889389.925334154</v>
       </c>
     </row>
     <row r="3">
@@ -54286,28 +54286,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1362.831494704059</v>
+        <v>1470.627630186607</v>
       </c>
       <c r="AB3" t="n">
-        <v>1864.686174936309</v>
+        <v>2012.177603133394</v>
       </c>
       <c r="AC3" t="n">
-        <v>1686.723143503871</v>
+        <v>1820.138196799345</v>
       </c>
       <c r="AD3" t="n">
-        <v>1362831.494704059</v>
+        <v>1470627.630186607</v>
       </c>
       <c r="AE3" t="n">
-        <v>1864686.174936309</v>
+        <v>2012177.603133394</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.264916355921423e-07</v>
+        <v>1.738461705484926e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.66956018518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>1686723.143503871</v>
+        <v>1820138.196799346</v>
       </c>
     </row>
     <row r="4">
@@ -54392,28 +54392,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1184.65291943826</v>
+        <v>1268.560823875683</v>
       </c>
       <c r="AB4" t="n">
-        <v>1620.894387573682</v>
+        <v>1735.70088418045</v>
       </c>
       <c r="AC4" t="n">
-        <v>1466.19850216321</v>
+        <v>1570.048027865758</v>
       </c>
       <c r="AD4" t="n">
-        <v>1184652.91943826</v>
+        <v>1268560.823875683</v>
       </c>
       <c r="AE4" t="n">
-        <v>1620894.387573682</v>
+        <v>1735700.88418045</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.020598033791655e-06</v>
+        <v>1.915042219788661e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.13310185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>1466198.50216321</v>
+        <v>1570048.027865758</v>
       </c>
     </row>
     <row r="5">
@@ -54498,28 +54498,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1097.435673654933</v>
+        <v>1181.258237237784</v>
       </c>
       <c r="AB5" t="n">
-        <v>1501.559904139611</v>
+        <v>1616.249633624182</v>
       </c>
       <c r="AC5" t="n">
-        <v>1358.253134341088</v>
+        <v>1461.997037011697</v>
       </c>
       <c r="AD5" t="n">
-        <v>1097435.673654933</v>
+        <v>1181258.237237784</v>
       </c>
       <c r="AE5" t="n">
-        <v>1501559.904139611</v>
+        <v>1616249.633624182</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.070560364316184e-06</v>
+        <v>2.008791148539821e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.42708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1358253.134341088</v>
+        <v>1461997.037011697</v>
       </c>
     </row>
     <row r="6">
@@ -54604,28 +54604,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1038.508852111319</v>
+        <v>1134.232816035172</v>
       </c>
       <c r="AB6" t="n">
-        <v>1420.933627235748</v>
+        <v>1551.907377719603</v>
       </c>
       <c r="AC6" t="n">
-        <v>1285.321716145238</v>
+        <v>1403.795515705728</v>
       </c>
       <c r="AD6" t="n">
-        <v>1038508.852111319</v>
+        <v>1134232.816035172</v>
       </c>
       <c r="AE6" t="n">
-        <v>1420933.627235747</v>
+        <v>1551907.377719603</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.103228041966838e-06</v>
+        <v>2.070088525030965e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.99884259259259</v>
       </c>
       <c r="AH6" t="n">
-        <v>1285321.716145238</v>
+        <v>1403795.515705728</v>
       </c>
     </row>
     <row r="7">
@@ -54710,28 +54710,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1008.334529680462</v>
+        <v>1092.242344609333</v>
       </c>
       <c r="AB7" t="n">
-        <v>1379.647788088694</v>
+        <v>1494.454162225914</v>
       </c>
       <c r="AC7" t="n">
-        <v>1247.97613954134</v>
+        <v>1351.825554462662</v>
       </c>
       <c r="AD7" t="n">
-        <v>1008334.529680462</v>
+        <v>1092242.344609333</v>
       </c>
       <c r="AE7" t="n">
-        <v>1379647.788088694</v>
+        <v>1494454.162225914</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.124739600942676e-06</v>
+        <v>2.110452647132159e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.73263888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1247976.13954134</v>
+        <v>1351825.554462662</v>
       </c>
     </row>
     <row r="8">
@@ -54816,28 +54816,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>985.6755427814352</v>
+        <v>1069.583357710306</v>
       </c>
       <c r="AB8" t="n">
-        <v>1348.644762569495</v>
+        <v>1463.451136706715</v>
       </c>
       <c r="AC8" t="n">
-        <v>1219.931999264674</v>
+        <v>1323.781414185996</v>
       </c>
       <c r="AD8" t="n">
-        <v>985675.5427814352</v>
+        <v>1069583.357710307</v>
       </c>
       <c r="AE8" t="n">
-        <v>1348644.762569495</v>
+        <v>1463451.136706715</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.140379518510718e-06</v>
+        <v>2.139799266922853e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.54456018518519</v>
       </c>
       <c r="AH8" t="n">
-        <v>1219931.999264674</v>
+        <v>1323781.414185996</v>
       </c>
     </row>
     <row r="9">
@@ -54922,28 +54922,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>968.7287014436107</v>
+        <v>1052.46592417189</v>
       </c>
       <c r="AB9" t="n">
-        <v>1325.45734660921</v>
+        <v>1440.030308971582</v>
       </c>
       <c r="AC9" t="n">
-        <v>1198.957557739896</v>
+        <v>1302.595837378566</v>
       </c>
       <c r="AD9" t="n">
-        <v>968728.7014436107</v>
+        <v>1052465.92417189</v>
       </c>
       <c r="AE9" t="n">
-        <v>1325457.34660921</v>
+        <v>1440030.308971582</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.151642394302038e-06</v>
+        <v>2.16093283953663e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.41145833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1198957.557739896</v>
+        <v>1302595.837378566</v>
       </c>
     </row>
     <row r="10">
@@ -55028,28 +55028,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>952.6314858109907</v>
+        <v>1036.36870853927</v>
       </c>
       <c r="AB10" t="n">
-        <v>1303.432426021626</v>
+        <v>1418.005388383998</v>
       </c>
       <c r="AC10" t="n">
-        <v>1179.034664661021</v>
+        <v>1282.672944299691</v>
       </c>
       <c r="AD10" t="n">
-        <v>952631.4858109908</v>
+        <v>1036368.70853927</v>
       </c>
       <c r="AE10" t="n">
-        <v>1303432.426021626</v>
+        <v>1418005.388383999</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.161464049020535e-06</v>
+        <v>2.179362116128738e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.29861111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>1179034.664661021</v>
+        <v>1282672.944299691</v>
       </c>
     </row>
     <row r="11">
@@ -55134,28 +55134,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>938.4571532071107</v>
+        <v>1022.19437593539</v>
       </c>
       <c r="AB11" t="n">
-        <v>1284.038478825576</v>
+        <v>1398.611441187949</v>
       </c>
       <c r="AC11" t="n">
-        <v>1161.491648565786</v>
+        <v>1265.129928204457</v>
       </c>
       <c r="AD11" t="n">
-        <v>938457.1532071107</v>
+        <v>1022194.37593539</v>
       </c>
       <c r="AE11" t="n">
-        <v>1284038.478825576</v>
+        <v>1398611.441187949</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.167762718894354e-06</v>
+        <v>2.191180891334547e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.22627314814815</v>
       </c>
       <c r="AH11" t="n">
-        <v>1161491.648565786</v>
+        <v>1265129.928204457</v>
       </c>
     </row>
     <row r="12">
@@ -55240,28 +55240,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>927.1234343413902</v>
+        <v>999.044508074688</v>
       </c>
       <c r="AB12" t="n">
-        <v>1268.53118466511</v>
+        <v>1366.936770680846</v>
       </c>
       <c r="AC12" t="n">
-        <v>1147.46434879537</v>
+        <v>1236.478243794873</v>
       </c>
       <c r="AD12" t="n">
-        <v>927123.4343413902</v>
+        <v>999044.508074688</v>
       </c>
       <c r="AE12" t="n">
-        <v>1268531.18466511</v>
+        <v>1366936.770680846</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.175022202816721e-06</v>
+        <v>2.204802530554801e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.14525462962963</v>
       </c>
       <c r="AH12" t="n">
-        <v>1147464.34879537</v>
+        <v>1236478.243794873</v>
       </c>
     </row>
     <row r="13">
@@ -55346,28 +55346,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>918.5432384130685</v>
+        <v>990.4643121463663</v>
       </c>
       <c r="AB13" t="n">
-        <v>1256.791382064451</v>
+        <v>1355.196968080188</v>
       </c>
       <c r="AC13" t="n">
-        <v>1136.844976478002</v>
+        <v>1225.858871477504</v>
       </c>
       <c r="AD13" t="n">
-        <v>918543.2384130685</v>
+        <v>990464.3121463663</v>
       </c>
       <c r="AE13" t="n">
-        <v>1256791.382064451</v>
+        <v>1355196.968080188</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.179399244593443e-06</v>
+        <v>2.213015577731719e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.09606481481481</v>
       </c>
       <c r="AH13" t="n">
-        <v>1136844.976478002</v>
+        <v>1225858.871477504</v>
       </c>
     </row>
     <row r="14">
@@ -55452,28 +55452,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>907.5772647224668</v>
+        <v>979.4983384557646</v>
       </c>
       <c r="AB14" t="n">
-        <v>1241.787253076354</v>
+        <v>1340.192839092091</v>
       </c>
       <c r="AC14" t="n">
-        <v>1123.272820502102</v>
+        <v>1212.286715501605</v>
       </c>
       <c r="AD14" t="n">
-        <v>907577.2647224668</v>
+        <v>979498.3384557646</v>
       </c>
       <c r="AE14" t="n">
-        <v>1241787.253076354</v>
+        <v>1340192.839092091</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.184310071952691e-06</v>
+        <v>2.222230216027773e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.04108796296296</v>
       </c>
       <c r="AH14" t="n">
-        <v>1123272.820502102</v>
+        <v>1212286.715501605</v>
       </c>
     </row>
     <row r="15">
@@ -55558,28 +55558,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>896.208582221789</v>
+        <v>968.1296559550869</v>
       </c>
       <c r="AB15" t="n">
-        <v>1226.232120128053</v>
+        <v>1324.63770614379</v>
       </c>
       <c r="AC15" t="n">
-        <v>1109.20224761062</v>
+        <v>1198.216142610123</v>
       </c>
       <c r="AD15" t="n">
-        <v>896208.5822217891</v>
+        <v>968129.6559550869</v>
       </c>
       <c r="AE15" t="n">
-        <v>1226232.120128053</v>
+        <v>1324637.706143789</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.187993192472127e-06</v>
+        <v>2.229141194749814e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.0005787037037</v>
       </c>
       <c r="AH15" t="n">
-        <v>1109202.24761062</v>
+        <v>1198216.142610123</v>
       </c>
     </row>
     <row r="16">
@@ -55664,28 +55664,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>876.5978452436202</v>
+        <v>960.4203193179198</v>
       </c>
       <c r="AB16" t="n">
-        <v>1199.399844629867</v>
+        <v>1314.089451644889</v>
       </c>
       <c r="AC16" t="n">
-        <v>1084.930806826646</v>
+        <v>1188.674598716029</v>
       </c>
       <c r="AD16" t="n">
-        <v>876597.8452436202</v>
+        <v>960420.3193179199</v>
       </c>
       <c r="AE16" t="n">
-        <v>1199399.844629867</v>
+        <v>1314089.451644889</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.191729691549817e-06</v>
+        <v>2.236152332583769e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.96006944444444</v>
       </c>
       <c r="AH16" t="n">
-        <v>1084930.806826646</v>
+        <v>1188674.598716029</v>
       </c>
     </row>
     <row r="17">
@@ -55770,28 +55770,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>867.389850904769</v>
+        <v>951.2123249790689</v>
       </c>
       <c r="AB17" t="n">
-        <v>1186.801060547411</v>
+        <v>1301.490667562433</v>
       </c>
       <c r="AC17" t="n">
-        <v>1073.534433014515</v>
+        <v>1177.278224903898</v>
       </c>
       <c r="AD17" t="n">
-        <v>867389.850904769</v>
+        <v>951212.3249790688</v>
       </c>
       <c r="AE17" t="n">
-        <v>1186801.060547411</v>
+        <v>1301490.667562433</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.195092540719737e-06</v>
+        <v>2.242462356634327e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.9224537037037</v>
       </c>
       <c r="AH17" t="n">
-        <v>1073534.433014515</v>
+        <v>1177278.224903898</v>
       </c>
     </row>
     <row r="18">
@@ -55876,28 +55876,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>859.2773890170297</v>
+        <v>943.0998630913293</v>
       </c>
       <c r="AB18" t="n">
-        <v>1175.701232296046</v>
+        <v>1290.390839311068</v>
       </c>
       <c r="AC18" t="n">
-        <v>1063.493956792754</v>
+        <v>1167.237748682137</v>
       </c>
       <c r="AD18" t="n">
-        <v>859277.3890170297</v>
+        <v>943099.8630913293</v>
       </c>
       <c r="AE18" t="n">
-        <v>1175701.232296046</v>
+        <v>1290390.839311068</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.196160111884791e-06</v>
+        <v>2.244465538872599e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.91087962962963</v>
       </c>
       <c r="AH18" t="n">
-        <v>1063493.956792754</v>
+        <v>1167237.748682137</v>
       </c>
     </row>
     <row r="19">
@@ -55982,28 +55982,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>847.0369810943882</v>
+        <v>930.859455168688</v>
       </c>
       <c r="AB19" t="n">
-        <v>1158.953366167603</v>
+        <v>1273.642973182625</v>
       </c>
       <c r="AC19" t="n">
-        <v>1048.344483501832</v>
+        <v>1152.088275391214</v>
       </c>
       <c r="AD19" t="n">
-        <v>847036.9810943883</v>
+        <v>930859.455168688</v>
       </c>
       <c r="AE19" t="n">
-        <v>1158953.366167603</v>
+        <v>1273642.973182625</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.200110125195491e-06</v>
+        <v>2.251877313154209e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.87037037037037</v>
       </c>
       <c r="AH19" t="n">
-        <v>1048344.483501832</v>
+        <v>1152088.275391214</v>
       </c>
     </row>
     <row r="20">
@@ -56088,28 +56088,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>840.4223677005421</v>
+        <v>924.2448417748417</v>
       </c>
       <c r="AB20" t="n">
-        <v>1149.902960305995</v>
+        <v>1264.592567321017</v>
       </c>
       <c r="AC20" t="n">
-        <v>1040.157835673331</v>
+        <v>1143.901627562714</v>
       </c>
       <c r="AD20" t="n">
-        <v>840422.3677005421</v>
+        <v>924244.8417748417</v>
       </c>
       <c r="AE20" t="n">
-        <v>1149902.960305995</v>
+        <v>1264592.567321017</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.201658103384819e-06</v>
+        <v>2.254781927399704e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.85300925925926</v>
       </c>
       <c r="AH20" t="n">
-        <v>1040157.835673331</v>
+        <v>1143901.627562714</v>
       </c>
     </row>
     <row r="21">
@@ -56194,28 +56194,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>830.3984382548974</v>
+        <v>914.2209123291974</v>
       </c>
       <c r="AB21" t="n">
-        <v>1136.187777813907</v>
+        <v>1250.87738482893</v>
       </c>
       <c r="AC21" t="n">
-        <v>1027.751610948909</v>
+        <v>1131.495402838292</v>
       </c>
       <c r="AD21" t="n">
-        <v>830398.4382548975</v>
+        <v>914220.9123291974</v>
       </c>
       <c r="AE21" t="n">
-        <v>1136187.777813907</v>
+        <v>1250877.38482893</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.204006759947938e-06</v>
+        <v>2.259188928323904e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.82696759259259</v>
       </c>
       <c r="AH21" t="n">
-        <v>1027751.610948909</v>
+        <v>1131495.402838292</v>
       </c>
     </row>
     <row r="22">
@@ -56300,28 +56300,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>828.808970177982</v>
+        <v>912.6314442522817</v>
       </c>
       <c r="AB22" t="n">
-        <v>1134.012997468689</v>
+        <v>1248.702604483711</v>
       </c>
       <c r="AC22" t="n">
-        <v>1025.784388587515</v>
+        <v>1129.528180476898</v>
       </c>
       <c r="AD22" t="n">
-        <v>828808.970177982</v>
+        <v>912631.4442522817</v>
       </c>
       <c r="AE22" t="n">
-        <v>1134012.997468689</v>
+        <v>1248702.604483711</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.203099324457642e-06</v>
+        <v>2.257486223421372e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.83854166666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>1025784.388587515</v>
+        <v>1129528.180476898</v>
       </c>
     </row>
     <row r="23">
@@ -56406,28 +56406,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>829.5183850371291</v>
+        <v>913.3408591114287</v>
       </c>
       <c r="AB23" t="n">
-        <v>1134.983650176149</v>
+        <v>1249.673257191171</v>
       </c>
       <c r="AC23" t="n">
-        <v>1026.662403562894</v>
+        <v>1130.406195452277</v>
       </c>
       <c r="AD23" t="n">
-        <v>829518.385037129</v>
+        <v>913340.8591114287</v>
       </c>
       <c r="AE23" t="n">
-        <v>1134983.650176149</v>
+        <v>1249673.257191171</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.204807438321728e-06</v>
+        <v>2.260691315002608e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.82118055555556</v>
       </c>
       <c r="AH23" t="n">
-        <v>1026662.403562894</v>
+        <v>1130406.195452277</v>
       </c>
     </row>
     <row r="24">
@@ -56512,28 +56512,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>832.6996201458263</v>
+        <v>916.5220942201262</v>
       </c>
       <c r="AB24" t="n">
-        <v>1139.336356398056</v>
+        <v>1254.025963413079</v>
       </c>
       <c r="AC24" t="n">
-        <v>1030.599693612044</v>
+        <v>1134.343485501427</v>
       </c>
       <c r="AD24" t="n">
-        <v>832699.6201458264</v>
+        <v>916522.0942201262</v>
       </c>
       <c r="AE24" t="n">
-        <v>1139336.356398056</v>
+        <v>1254025.963413079</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.204914195438234e-06</v>
+        <v>2.260891633226435e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>12.81828703703704</v>
       </c>
       <c r="AH24" t="n">
-        <v>1030599.693612044</v>
+        <v>1134343.485501427</v>
       </c>
     </row>
     <row r="25">
@@ -56618,28 +56618,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>835.9419424213273</v>
+        <v>919.7644164956273</v>
       </c>
       <c r="AB25" t="n">
-        <v>1143.77264477656</v>
+        <v>1258.462251791583</v>
       </c>
       <c r="AC25" t="n">
-        <v>1034.612588854074</v>
+        <v>1138.356380743457</v>
       </c>
       <c r="AD25" t="n">
-        <v>835941.9424213273</v>
+        <v>919764.4164956273</v>
       </c>
       <c r="AE25" t="n">
-        <v>1143772.64477656</v>
+        <v>1258462.251791582</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.204807438321728e-06</v>
+        <v>2.260691315002608e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12.81828703703704</v>
       </c>
       <c r="AH25" t="n">
-        <v>1034612.588854074</v>
+        <v>1138356.380743457</v>
       </c>
     </row>
     <row r="26">
@@ -56724,28 +56724,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>839.1303981602846</v>
+        <v>922.9528722345846</v>
       </c>
       <c r="AB26" t="n">
-        <v>1148.135230583341</v>
+        <v>1262.824837598364</v>
       </c>
       <c r="AC26" t="n">
-        <v>1038.558815594383</v>
+        <v>1142.302607483766</v>
       </c>
       <c r="AD26" t="n">
-        <v>839130.3981602846</v>
+        <v>922952.8722345845</v>
       </c>
       <c r="AE26" t="n">
-        <v>1148135.230583341</v>
+        <v>1262824.837598363</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.204807438321728e-06</v>
+        <v>2.260691315002608e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>12.82118055555556</v>
       </c>
       <c r="AH26" t="n">
-        <v>1038558.815594383</v>
+        <v>1142302.607483766</v>
       </c>
     </row>
   </sheetData>
@@ -57021,28 +57021,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>378.790988728171</v>
+        <v>451.9018507248949</v>
       </c>
       <c r="AB2" t="n">
-        <v>518.2785418568985</v>
+        <v>618.3120486644084</v>
       </c>
       <c r="AC2" t="n">
-        <v>468.8147652305774</v>
+        <v>559.3012145462872</v>
       </c>
       <c r="AD2" t="n">
-        <v>378790.988728171</v>
+        <v>451901.8507248949</v>
       </c>
       <c r="AE2" t="n">
-        <v>518278.5418568986</v>
+        <v>618312.0486644084</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.429586361002403e-06</v>
+        <v>3.575286998227599e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.88310185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>468814.7652305774</v>
+        <v>559301.2145462872</v>
       </c>
     </row>
     <row r="3">
@@ -57127,28 +57127,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>384.4532419290558</v>
+        <v>457.5641039257798</v>
       </c>
       <c r="AB3" t="n">
-        <v>526.0258864873304</v>
+        <v>626.0593932948402</v>
       </c>
       <c r="AC3" t="n">
-        <v>475.8227141629472</v>
+        <v>566.309163478657</v>
       </c>
       <c r="AD3" t="n">
-        <v>384453.2419290558</v>
+        <v>457564.1039257798</v>
       </c>
       <c r="AE3" t="n">
-        <v>526025.8864873303</v>
+        <v>626059.3932948402</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.429654949322751e-06</v>
+        <v>3.575458532411652e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.88310185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>475822.7141629472</v>
+        <v>566309.1634786569</v>
       </c>
     </row>
   </sheetData>
@@ -57424,28 +57424,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1077.570428073093</v>
+        <v>1164.082093376387</v>
       </c>
       <c r="AB2" t="n">
-        <v>1474.379398741755</v>
+        <v>1592.748475835031</v>
       </c>
       <c r="AC2" t="n">
-        <v>1333.666698230323</v>
+        <v>1440.738796737861</v>
       </c>
       <c r="AD2" t="n">
-        <v>1077570.428073093</v>
+        <v>1164082.093376387</v>
       </c>
       <c r="AE2" t="n">
-        <v>1474379.398741755</v>
+        <v>1592748.475835031</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.983950428864878e-07</v>
+        <v>2.05597839648432e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.03703703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>1333666.698230323</v>
+        <v>1440738.796737861</v>
       </c>
     </row>
     <row r="3">
@@ -57530,28 +57530,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>815.9947565621512</v>
+        <v>891.607134036531</v>
       </c>
       <c r="AB3" t="n">
-        <v>1116.480025076303</v>
+        <v>1219.936215719416</v>
       </c>
       <c r="AC3" t="n">
-        <v>1009.924738472577</v>
+        <v>1103.507215482387</v>
       </c>
       <c r="AD3" t="n">
-        <v>815994.7565621512</v>
+        <v>891607.134036531</v>
       </c>
       <c r="AE3" t="n">
-        <v>1116480.025076303</v>
+        <v>1219936.215719416</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.181636952365212e-06</v>
+        <v>2.433325429508027e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.39525462962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>1009924.738472577</v>
+        <v>1103507.215482387</v>
       </c>
     </row>
     <row r="4">
@@ -57636,28 +57636,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>738.6746491585898</v>
+        <v>814.3722779789903</v>
       </c>
       <c r="AB4" t="n">
-        <v>1010.687243004357</v>
+        <v>1114.260078300119</v>
       </c>
       <c r="AC4" t="n">
-        <v>914.2286710404746</v>
+        <v>1007.916660300997</v>
       </c>
       <c r="AD4" t="n">
-        <v>738674.6491585898</v>
+        <v>814372.2779789902</v>
       </c>
       <c r="AE4" t="n">
-        <v>1010687.243004357</v>
+        <v>1114260.078300119</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.245892135894326e-06</v>
+        <v>2.565645066047941e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.65451388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>914228.6710404747</v>
+        <v>1007916.660300997</v>
       </c>
     </row>
     <row r="5">
@@ -57742,28 +57742,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>701.884382222924</v>
+        <v>777.4114188427324</v>
       </c>
       <c r="AB5" t="n">
-        <v>960.3491767109523</v>
+        <v>1063.688600231867</v>
       </c>
       <c r="AC5" t="n">
-        <v>868.6947991441932</v>
+        <v>962.1716531220642</v>
       </c>
       <c r="AD5" t="n">
-        <v>701884.382222924</v>
+        <v>777411.4188427323</v>
       </c>
       <c r="AE5" t="n">
-        <v>960349.1767109523</v>
+        <v>1063688.600231868</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.279518819314868e-06</v>
+        <v>2.634891938967274e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.29571759259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>868694.7991441932</v>
+        <v>962171.6531220642</v>
       </c>
     </row>
     <row r="6">
@@ -57848,28 +57848,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>675.0326295918824</v>
+        <v>739.916400946491</v>
       </c>
       <c r="AB6" t="n">
-        <v>923.609424145441</v>
+        <v>1012.386262582786</v>
       </c>
       <c r="AC6" t="n">
-        <v>835.4614369989677</v>
+        <v>915.7655385749274</v>
       </c>
       <c r="AD6" t="n">
-        <v>675032.6295918823</v>
+        <v>739916.4009464909</v>
       </c>
       <c r="AE6" t="n">
-        <v>923609.424145441</v>
+        <v>1012386.262582786</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.29991822341789e-06</v>
+        <v>2.676900094392114e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.08449074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>835461.4369989677</v>
+        <v>915765.5385749274</v>
       </c>
     </row>
     <row r="7">
@@ -57954,28 +57954,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>640.5336012750947</v>
+        <v>716.1458892409236</v>
       </c>
       <c r="AB7" t="n">
-        <v>876.4063316126994</v>
+        <v>979.8623997862639</v>
       </c>
       <c r="AC7" t="n">
-        <v>792.7633413675944</v>
+        <v>886.3457075961777</v>
       </c>
       <c r="AD7" t="n">
-        <v>640533.6012750947</v>
+        <v>716145.8892409236</v>
       </c>
       <c r="AE7" t="n">
-        <v>876406.3316126994</v>
+        <v>979862.3997862639</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.313027926919255e-06</v>
+        <v>2.703896689953323e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.95428240740741</v>
       </c>
       <c r="AH7" t="n">
-        <v>792763.3413675944</v>
+        <v>886345.7075961777</v>
       </c>
     </row>
     <row r="8">
@@ -58060,28 +58060,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>623.412260291181</v>
+        <v>699.0245482570098</v>
       </c>
       <c r="AB8" t="n">
-        <v>852.9801575382538</v>
+        <v>956.4362257118183</v>
       </c>
       <c r="AC8" t="n">
-        <v>771.5729284679722</v>
+        <v>865.1552946965555</v>
       </c>
       <c r="AD8" t="n">
-        <v>623412.260291181</v>
+        <v>699024.5482570098</v>
       </c>
       <c r="AE8" t="n">
-        <v>852980.1575382538</v>
+        <v>956436.2257118183</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.322375204303636e-06</v>
+        <v>2.723145383649431e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.86458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>771572.9284679722</v>
+        <v>865155.2946965555</v>
       </c>
     </row>
     <row r="9">
@@ -58166,28 +58166,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>621.3886800257851</v>
+        <v>697.0009679916141</v>
       </c>
       <c r="AB9" t="n">
-        <v>850.2114057450784</v>
+        <v>953.6674739186428</v>
       </c>
       <c r="AC9" t="n">
-        <v>769.0684224599698</v>
+        <v>862.650788688553</v>
       </c>
       <c r="AD9" t="n">
-        <v>621388.6800257851</v>
+        <v>697000.967991614</v>
       </c>
       <c r="AE9" t="n">
-        <v>850211.4057450785</v>
+        <v>953667.4739186428</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.324138841545973e-06</v>
+        <v>2.726777212648697e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.84722222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>769068.4224599699</v>
+        <v>862650.788688553</v>
       </c>
     </row>
     <row r="10">
@@ -58272,28 +58272,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>624.5823066855946</v>
+        <v>700.1945946514234</v>
       </c>
       <c r="AB10" t="n">
-        <v>854.5810666338944</v>
+        <v>958.0371348074589</v>
       </c>
       <c r="AC10" t="n">
-        <v>773.0210490464148</v>
+        <v>866.6034152749979</v>
       </c>
       <c r="AD10" t="n">
-        <v>624582.3066855946</v>
+        <v>700194.5946514234</v>
       </c>
       <c r="AE10" t="n">
-        <v>854581.0666338943</v>
+        <v>958037.1348074588</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.323962477821739e-06</v>
+        <v>2.72641402974877e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.84722222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>773021.0490464148</v>
+        <v>866603.4152749979</v>
       </c>
     </row>
   </sheetData>
@@ -58569,28 +58569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1388.009297054889</v>
+        <v>1500.537029488053</v>
       </c>
       <c r="AB2" t="n">
-        <v>1899.135554878961</v>
+        <v>2053.100962767203</v>
       </c>
       <c r="AC2" t="n">
-        <v>1717.884722974804</v>
+        <v>1857.155888425999</v>
       </c>
       <c r="AD2" t="n">
-        <v>1388009.297054889</v>
+        <v>1500537.029488053</v>
       </c>
       <c r="AE2" t="n">
-        <v>1899135.554878961</v>
+        <v>2053100.962767203</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.74981790296323e-07</v>
+        <v>1.733500021034369e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.71817129629629</v>
       </c>
       <c r="AH2" t="n">
-        <v>1717884.722974804</v>
+        <v>1857155.888425999</v>
       </c>
     </row>
     <row r="3">
@@ -58675,28 +58675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>996.7925705878312</v>
+        <v>1075.621811397797</v>
       </c>
       <c r="AB3" t="n">
-        <v>1363.855570462859</v>
+        <v>1471.713215439715</v>
       </c>
       <c r="AC3" t="n">
-        <v>1233.691109001198</v>
+        <v>1331.254971720618</v>
       </c>
       <c r="AD3" t="n">
-        <v>996792.5705878312</v>
+        <v>1075621.811397797</v>
       </c>
       <c r="AE3" t="n">
-        <v>1363855.570462859</v>
+        <v>1471713.215439714</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.084006161314133e-06</v>
+        <v>2.147615783870252e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.10706018518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>1233691.109001198</v>
+        <v>1331254.971720618</v>
       </c>
     </row>
     <row r="4">
@@ -58781,28 +58781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>892.108480209586</v>
+        <v>970.8523801649803</v>
       </c>
       <c r="AB4" t="n">
-        <v>1220.622179671222</v>
+        <v>1328.36305752588</v>
       </c>
       <c r="AC4" t="n">
-        <v>1104.127711997389</v>
+        <v>1201.58595168487</v>
       </c>
       <c r="AD4" t="n">
-        <v>892108.480209586</v>
+        <v>970852.3801649803</v>
       </c>
       <c r="AE4" t="n">
-        <v>1220622.179671222</v>
+        <v>1328363.05752588</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.160303169744137e-06</v>
+        <v>2.298774204748338e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.11458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1104127.711997389</v>
+        <v>1201585.95168487</v>
       </c>
     </row>
     <row r="5">
@@ -58887,28 +58887,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>834.2919910863368</v>
+        <v>913.1211423877519</v>
       </c>
       <c r="AB5" t="n">
-        <v>1141.515108569311</v>
+        <v>1249.372631076618</v>
       </c>
       <c r="AC5" t="n">
-        <v>1032.570508733972</v>
+        <v>1130.134260672166</v>
       </c>
       <c r="AD5" t="n">
-        <v>834291.9910863368</v>
+        <v>913121.1423877518</v>
       </c>
       <c r="AE5" t="n">
-        <v>1141515.108569311</v>
+        <v>1249372.631076618</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.199527076896951e-06</v>
+        <v>2.376483986401538e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.65162037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>1032570.508733972</v>
+        <v>1130134.260672166</v>
       </c>
     </row>
     <row r="6">
@@ -58993,28 +58993,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>805.115997273072</v>
+        <v>883.7745563738947</v>
       </c>
       <c r="AB6" t="n">
-        <v>1101.595226679997</v>
+        <v>1209.219337412458</v>
       </c>
       <c r="AC6" t="n">
-        <v>996.4605243442689</v>
+        <v>1093.813140999812</v>
       </c>
       <c r="AD6" t="n">
-        <v>805115.997273072</v>
+        <v>883774.5563738947</v>
       </c>
       <c r="AE6" t="n">
-        <v>1101595.226679998</v>
+        <v>1209219.337412458</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.223865143384268e-06</v>
+        <v>2.424702177037723e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.38252314814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>996460.524344269</v>
+        <v>1093813.140999812</v>
       </c>
     </row>
     <row r="7">
@@ -59099,28 +59099,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>782.2507329250742</v>
+        <v>860.9092920258969</v>
       </c>
       <c r="AB7" t="n">
-        <v>1070.309963254797</v>
+        <v>1177.934073987258</v>
       </c>
       <c r="AC7" t="n">
-        <v>968.1610825512269</v>
+        <v>1065.513699206769</v>
       </c>
       <c r="AD7" t="n">
-        <v>782250.7329250742</v>
+        <v>860909.2920258968</v>
       </c>
       <c r="AE7" t="n">
-        <v>1070309.963254797</v>
+        <v>1177934.073987258</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.240279188224551e-06</v>
+        <v>2.457221421885382e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.203125</v>
       </c>
       <c r="AH7" t="n">
-        <v>968161.0825512268</v>
+        <v>1065513.699206769</v>
       </c>
     </row>
     <row r="8">
@@ -59205,28 +59205,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>761.5285748580446</v>
+        <v>829.0965083392372</v>
       </c>
       <c r="AB8" t="n">
-        <v>1041.956992390395</v>
+        <v>1134.406419866207</v>
       </c>
       <c r="AC8" t="n">
-        <v>942.5140794324781</v>
+        <v>1026.140263303585</v>
       </c>
       <c r="AD8" t="n">
-        <v>761528.5748580446</v>
+        <v>829096.5083392372</v>
       </c>
       <c r="AE8" t="n">
-        <v>1041956.992390395</v>
+        <v>1134406.419866207</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.252731222241317e-06</v>
+        <v>2.481891193838779e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.07291666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>942514.0794324781</v>
+        <v>1026140.263303585</v>
       </c>
     </row>
     <row r="9">
@@ -59311,28 +59311,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>733.4904430373404</v>
+        <v>812.2342534841836</v>
       </c>
       <c r="AB9" t="n">
-        <v>1003.593983478231</v>
+        <v>1111.334738863341</v>
       </c>
       <c r="AC9" t="n">
-        <v>907.8123822480701</v>
+        <v>1005.270511154325</v>
       </c>
       <c r="AD9" t="n">
-        <v>733490.4430373403</v>
+        <v>812234.2534841836</v>
       </c>
       <c r="AE9" t="n">
-        <v>1003593.983478231</v>
+        <v>1111334.738863341</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.261221245434567e-06</v>
+        <v>2.498711492897913e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.98611111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>907812.3822480701</v>
+        <v>1005270.511154325</v>
       </c>
     </row>
     <row r="10">
@@ -59417,28 +59417,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>719.8855120144697</v>
+        <v>798.6293224613129</v>
       </c>
       <c r="AB10" t="n">
-        <v>984.9791166455429</v>
+        <v>1092.719872030653</v>
       </c>
       <c r="AC10" t="n">
-        <v>890.9740921797641</v>
+        <v>988.4322210860192</v>
       </c>
       <c r="AD10" t="n">
-        <v>719885.5120144697</v>
+        <v>798629.3224613129</v>
       </c>
       <c r="AE10" t="n">
-        <v>984979.1166455429</v>
+        <v>1092719.872030653</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.267334062133707e-06</v>
+        <v>2.51082210822049e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.9224537037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>890974.0921797641</v>
+        <v>988432.2210860192</v>
       </c>
     </row>
     <row r="11">
@@ -59523,28 +59523,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>704.9468372423376</v>
+        <v>783.6906476891808</v>
       </c>
       <c r="AB11" t="n">
-        <v>964.5393627744942</v>
+        <v>1072.280118159604</v>
       </c>
       <c r="AC11" t="n">
-        <v>872.4850797307938</v>
+        <v>969.9432086370488</v>
       </c>
       <c r="AD11" t="n">
-        <v>704946.8372423375</v>
+        <v>783690.6476891808</v>
       </c>
       <c r="AE11" t="n">
-        <v>964539.3627744942</v>
+        <v>1072280.118159604</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.273729879605955e-06</v>
+        <v>2.523493400178371e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.8587962962963</v>
       </c>
       <c r="AH11" t="n">
-        <v>872485.0797307938</v>
+        <v>969943.2086370487</v>
       </c>
     </row>
     <row r="12">
@@ -59629,28 +59629,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>691.8592797632107</v>
+        <v>770.6030902100541</v>
       </c>
       <c r="AB12" t="n">
-        <v>946.6323892492665</v>
+        <v>1054.373144634377</v>
       </c>
       <c r="AC12" t="n">
-        <v>856.2871226262184</v>
+        <v>953.7452515324736</v>
       </c>
       <c r="AD12" t="n">
-        <v>691859.2797632107</v>
+        <v>770603.0902100541</v>
       </c>
       <c r="AE12" t="n">
-        <v>946632.3892492665</v>
+        <v>1054373.144634377</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.27831449213031e-06</v>
+        <v>2.532576361670304e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.8125</v>
       </c>
       <c r="AH12" t="n">
-        <v>856287.1226262185</v>
+        <v>953745.2515324736</v>
       </c>
     </row>
     <row r="13">
@@ -59735,28 +59735,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>693.3006925434414</v>
+        <v>772.0445029902847</v>
       </c>
       <c r="AB13" t="n">
-        <v>948.6045938058219</v>
+        <v>1056.345349190932</v>
       </c>
       <c r="AC13" t="n">
-        <v>858.0711027479027</v>
+        <v>955.5292316541577</v>
       </c>
       <c r="AD13" t="n">
-        <v>693300.6925434414</v>
+        <v>772044.5029902847</v>
       </c>
       <c r="AE13" t="n">
-        <v>948604.5938058218</v>
+        <v>1056345.349190932</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.277408889656363e-06</v>
+        <v>2.530782196437329e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.82118055555556</v>
       </c>
       <c r="AH13" t="n">
-        <v>858071.1027479027</v>
+        <v>955529.2316541576</v>
       </c>
     </row>
     <row r="14">
@@ -59841,28 +59841,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>696.4155287334926</v>
+        <v>775.1593391803359</v>
       </c>
       <c r="AB14" t="n">
-        <v>952.8664500979243</v>
+        <v>1060.607205483034</v>
       </c>
       <c r="AC14" t="n">
-        <v>861.9262134570398</v>
+        <v>959.3843423632946</v>
       </c>
       <c r="AD14" t="n">
-        <v>696415.5287334926</v>
+        <v>775159.3391803359</v>
       </c>
       <c r="AE14" t="n">
-        <v>952866.4500979242</v>
+        <v>1060607.205483034</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.277239089192498e-06</v>
+        <v>2.530445790456147e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.82118055555556</v>
       </c>
       <c r="AH14" t="n">
-        <v>861926.2134570398</v>
+        <v>959384.3423632947</v>
       </c>
     </row>
   </sheetData>
